--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28619"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="216" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E3AA9A5-B220-4AC1-82A2-D6409DECE8DD}"/>
+  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4062FA9-A7CB-4519-B158-CE63C7372A54}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="5436" yWindow="4404" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
   <si>
     <t>HISTORY</t>
   </si>
@@ -153,22 +153,6 @@
     <t>Manual</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>Ensure the AES IP returns to the default state after reset.
-02. Setting: 
-03. Expectation: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
     <t>Waveform checking</t>
   </si>
   <si>
@@ -181,96 +165,12 @@
     <t>AES_RESET_DURING_ENCRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting: 
-03. Expectation: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_reset_enc</t>
   </si>
   <si>
     <t>AES_RESET_DURING_DECRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the decryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting: 
-03. Expectation: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_reset_dec</t>
   </si>
   <si>
@@ -283,39 +183,6 @@
     <t>Automation</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting: 
-03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>Scoreboard checking</t>
   </si>
   <si>
@@ -325,39 +192,6 @@
     <t>AES_CONTINUOUS_ENCRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting:
-03. Expectation: The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_continuous_enc</t>
   </si>
   <si>
@@ -367,39 +201,6 @@
     <t>AES_SINGLE_DECRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Verifies the decryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting: 
-03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_single_dec</t>
   </si>
   <si>
@@ -407,32 +208,6 @@
   </si>
   <si>
     <t>AES_CONTINUOUS_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-02. Setting: 
-03. Expectation:  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
   </si>
   <si>
     <t>aes_test_continuous_dec</t>
@@ -537,16 +312,641 @@
     <t>NO CONTENT HERE
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_CASE </t>
+  </si>
+  <si>
+    <t>aes_test_special_case</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the encryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure the decryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>Verifies the decryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -582,7 +982,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -646,9 +1046,24 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1184,7 +1599,18 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1462,17 +1888,17 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48.28515625" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29.1">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1482,7 +1908,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
     </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1">
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1490,7 +1916,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1500,7 +1926,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1510,7 +1936,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1520,7 +1946,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1528,7 +1954,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1548,7 +1974,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1556,7 +1982,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1564,7 +1990,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1572,7 +1998,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1580,7 +2006,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1588,7 +2014,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1596,7 +2022,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -1604,7 +2030,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -1612,7 +2038,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -1620,7 +2046,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -1628,7 +2054,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -1636,7 +2062,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1644,7 +2070,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1652,7 +2078,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1660,7 +2086,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1668,7 +2094,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1676,7 +2102,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1684,7 +2110,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1692,7 +2118,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1700,7 +2126,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1708,7 +2134,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1716,7 +2142,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1724,7 +2150,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1732,7 +2158,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1740,7 +2166,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1748,7 +2174,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1756,7 +2182,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -1764,7 +2190,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -1772,7 +2198,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -1780,7 +2206,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -1788,7 +2214,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -1796,7 +2222,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -1804,7 +2230,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -1812,7 +2238,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -1820,7 +2246,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -1828,7 +2254,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -1836,7 +2262,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -1844,7 +2270,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -1852,7 +2278,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -1860,7 +2286,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -1885,27 +2311,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:L28"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" zoomScale="97" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.7109375" style="19"/>
-    <col min="6" max="6" width="29.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.85546875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="19"/>
-    <col min="11" max="11" width="30.5703125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.7109375" style="19"/>
+    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.69921875" style="19"/>
+    <col min="6" max="6" width="29.69921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="19"/>
+    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -1913,7 +2339,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.45">
+    <row r="3" spans="1:11" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -1921,7 +2347,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -1929,7 +2355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -1937,13 +2363,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="48"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +2377,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
@@ -1959,7 +2385,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -1994,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" customHeight="1">
+    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>31</v>
       </c>
@@ -2009,7 +2435,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="1:11" ht="36.950000000000003" customHeight="1">
+    <row r="12" spans="1:11" ht="36.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2025,27 +2451,27 @@
       <c r="E12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F12" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="20" t="s">
-        <v>38</v>
-      </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1">
+    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
@@ -2057,26 +2483,26 @@
         <v>34</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="32.1">
+    <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -2088,23 +2514,23 @@
         <v>34</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" customHeight="1">
+    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="45" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -2117,12 +2543,12 @@
       <c r="J15" s="45"/>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" ht="48">
+    <row r="16" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
@@ -2131,29 +2557,29 @@
         <v>33</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="48">
+    <row r="17" spans="1:11" ht="39" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
@@ -2162,75 +2588,75 @@
         <v>33</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A18" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-      <c r="J18" s="45"/>
-      <c r="K18" s="46"/>
-    </row>
-    <row r="19" spans="1:11" ht="48">
-      <c r="A19" s="20">
+    <row r="18" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="45"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="45"/>
+      <c r="J19" s="45"/>
+      <c r="K19" s="46"/>
+    </row>
+    <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A20" s="20">
         <v>7</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="48">
-      <c r="A20" s="20">
-        <v>8</v>
-      </c>
       <c r="B20" s="20" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
@@ -2239,112 +2665,143 @@
         <v>33</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="43" t="s">
-        <v>60</v>
+        <v>44</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J20" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+      <c r="A21" s="20">
+        <v>8</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C23" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="48">
-      <c r="A21" s="20"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H21" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="C22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="C23" s="25"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="D23" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="33"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
-      <c r="E24" s="26" t="s">
+      <c r="E24" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="34"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C25" s="25"/>
+      <c r="D25" s="29"/>
+      <c r="E25" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="35"/>
-    </row>
-    <row r="25" spans="1:11">
-      <c r="C25" s="25"/>
-      <c r="D25" s="30" t="s">
+      <c r="F25" s="35"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" s="25"/>
+      <c r="D26" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="F25" s="36"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="C26" s="25"/>
-      <c r="D26" s="31" t="s">
+      <c r="E26" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="36"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C27" s="25"/>
+      <c r="D27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="37"/>
-    </row>
-    <row r="27" spans="1:11">
-      <c r="C27" s="25" t="s">
+      <c r="E27" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27" s="37"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="19" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="34"/>
-    </row>
-    <row r="28" spans="1:11">
-      <c r="C28" s="26" t="s">
+      <c r="D28" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="35"/>
+      <c r="D29" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A18:K18"/>
+    <mergeCell ref="A19:K19"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A15:K15"/>
@@ -2365,15 +2822,15 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7109375" style="14"/>
+    <col min="1" max="16384" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="15" thickBot="1"/>
-    <row r="5" spans="3:15">
+    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -2388,7 +2845,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="51"/>
     </row>
-    <row r="6" spans="3:15">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -2403,7 +2860,7 @@
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="3:15">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -2418,7 +2875,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="54"/>
     </row>
-    <row r="8" spans="3:15">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -2433,7 +2890,7 @@
       <c r="N8" s="53"/>
       <c r="O8" s="54"/>
     </row>
-    <row r="9" spans="3:15">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -2448,7 +2905,7 @@
       <c r="N9" s="53"/>
       <c r="O9" s="54"/>
     </row>
-    <row r="10" spans="3:15">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -2463,7 +2920,7 @@
       <c r="N10" s="53"/>
       <c r="O10" s="54"/>
     </row>
-    <row r="11" spans="3:15">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -2478,7 +2935,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="54"/>
     </row>
-    <row r="12" spans="3:15">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -2493,7 +2950,7 @@
       <c r="N12" s="53"/>
       <c r="O12" s="54"/>
     </row>
-    <row r="13" spans="3:15">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="52"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -2508,7 +2965,7 @@
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="3:15">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -2523,7 +2980,7 @@
       <c r="N14" s="53"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="3:15" ht="15" thickBot="1">
+    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="241" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B4062FA9-A7CB-4519-B158-CE63C7372A54}"/>
+  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08B8A7F-B370-4E6F-89A4-5E8277725B8E}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="5436" yWindow="4404" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -153,6 +153,79 @@
     <t>Manual</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
     <t>Waveform checking</t>
   </si>
   <si>
@@ -165,12 +238,184 @@
     <t>AES_RESET_DURING_ENCRYPTION</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the encryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
     <t>aes_test_reset_enc</t>
   </si>
   <si>
     <t>AES_RESET_DURING_DECRYPTION</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure the decryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
     <t>aes_test_reset_dec</t>
   </si>
   <si>
@@ -183,6 +428,78 @@
     <t>Automation</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
     <t>Scoreboard checking</t>
   </si>
   <si>
@@ -192,15 +509,205 @@
     <t>AES_CONTINUOUS_ENCRYPTION</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
     <t>aes_test_continuous_enc</t>
   </si>
   <si>
+    <t xml:space="preserve">AES_SPECIAL_CASE </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t>aes_test_special_case</t>
+  </si>
+  <si>
     <t>Decryption Test</t>
   </si>
   <si>
     <t>AES_SINGLE_DECRYPTION</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">Verifies the decryption of a single data block using a randomly generated key and plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+- define DECIPHER
+03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
     <t>aes_test_single_dec</t>
   </si>
   <si>
@@ -208,6 +715,92 @@
   </si>
   <si>
     <t>AES_CONTINUOUS_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
   </si>
   <si>
     <t>aes_test_continuous_dec</t>
@@ -312,637 +905,12 @@
     <t>NO CONTENT HERE
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_CASE </t>
-  </si>
-  <si>
-    <t>aes_test_special_case</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ensure the decryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>Verifies the decryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1065,6 +1033,24 @@
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic UI"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1393,7 +1379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1508,6 +1494,9 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1599,18 +1588,7 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="D5">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1888,17 +1866,17 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="48.296875" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" customWidth="1"/>
+    <col min="3" max="3" width="48.25" customWidth="1"/>
+    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="28.9">
       <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
@@ -1908,7 +1886,7 @@
       <c r="E1" s="44"/>
       <c r="F1" s="44"/>
     </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="9" customHeight="1">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1916,7 +1894,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.6">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1926,7 +1904,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.6">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1936,7 +1914,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.6">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1946,7 +1924,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.6">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1954,7 +1932,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1974,7 +1952,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.6">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1982,7 +1960,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.6">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1990,7 +1968,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.6">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1998,7 +1976,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.6">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2006,7 +1984,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.6">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2014,7 +1992,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.6">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -2022,7 +2000,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.6">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2030,7 +2008,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.6">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2038,7 +2016,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.6">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2046,7 +2024,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.6">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2054,7 +2032,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.6">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2062,7 +2040,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.6">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2070,7 +2048,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.6">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2078,7 +2056,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15.6">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2086,7 +2064,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15.6">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2094,7 +2072,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15.6">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2102,7 +2080,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15.6">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2110,7 +2088,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.6">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2118,7 +2096,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="15.6">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2126,7 +2104,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.6">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2134,7 +2112,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="15.6">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2142,7 +2120,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="15.6">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2150,7 +2128,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="15.6">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2158,7 +2136,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15.6">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2166,7 +2144,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="15.6">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2174,7 +2152,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="15.6">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2182,7 +2160,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.6">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2190,7 +2168,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15.6">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2198,7 +2176,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.6">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2206,7 +2184,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15.6">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2214,7 +2192,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="15.6">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2222,7 +2200,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="15.6">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2230,7 +2208,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="15.6">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2238,7 +2216,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="15.6">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2246,7 +2224,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="15.6">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2254,7 +2232,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15.6">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2262,7 +2240,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="15.6">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2270,7 +2248,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15.6">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2278,7 +2256,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15.6">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2286,7 +2264,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.6">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2313,25 +2291,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.69921875" style="19"/>
-    <col min="6" max="6" width="29.69921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.8984375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="19"/>
-    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="19"/>
+    <col min="1" max="1" width="4.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.375" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.75" style="19"/>
+    <col min="6" max="6" width="29.75" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.875" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.75" style="19"/>
+    <col min="11" max="11" width="30.625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.75" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="22.9">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2347,7 +2325,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2355,7 +2333,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2363,13 +2341,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="48"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2377,7 +2355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2385,7 +2363,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2420,7 +2398,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="14.45" customHeight="1">
       <c r="A11" s="45" t="s">
         <v>31</v>
       </c>
@@ -2435,7 +2413,7 @@
       <c r="J11" s="45"/>
       <c r="K11" s="46"/>
     </row>
-    <row r="12" spans="1:11" ht="36.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="36.950000000000003" customHeight="1">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2452,26 +2430,26 @@
         <v>34</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="37.5" customHeight="1">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
@@ -2483,26 +2461,26 @@
         <v>34</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="31.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="31.15">
       <c r="A14" s="20">
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -2514,23 +2492,23 @@
         <v>34</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="14.45" customHeight="1">
       <c r="A15" s="45" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B15" s="45"/>
       <c r="C15" s="45"/>
@@ -2543,12 +2521,12 @@
       <c r="J15" s="45"/>
       <c r="K15" s="46"/>
     </row>
-    <row r="16" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="39">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
@@ -2557,29 +2535,29 @@
         <v>33</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F16" s="42" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="39">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
@@ -2588,29 +2566,29 @@
         <v>33</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="40.15" customHeight="1">
       <c r="A18" s="20">
         <v>6</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>19</v>
@@ -2619,26 +2597,26 @@
         <v>33</v>
       </c>
       <c r="E18" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="14.45" customHeight="1">
       <c r="A19" s="45" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B19" s="45"/>
       <c r="C19" s="45"/>
@@ -2651,12 +2629,12 @@
       <c r="J19" s="45"/>
       <c r="K19" s="46"/>
     </row>
-    <row r="20" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="52.5">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
@@ -2665,29 +2643,29 @@
         <v>33</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>71</v>
+        <v>47</v>
+      </c>
+      <c r="F20" s="58" t="s">
+        <v>59</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="39">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>19</v>
@@ -2696,63 +2674,63 @@
         <v>33</v>
       </c>
       <c r="E21" s="20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="46.9">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="38" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11">
       <c r="C23" s="24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2760,41 +2738,41 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11">
       <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
@@ -2822,15 +2800,15 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="16384" width="8.69921875" style="14"/>
+    <col min="1" max="16384" width="8.75" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:15" ht="14.45" thickBot="1"/>
+    <row r="5" spans="3:15">
       <c r="C5" s="49" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D5" s="50"/>
       <c r="E5" s="50"/>
@@ -2845,7 +2823,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="51"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15">
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -2860,7 +2838,7 @@
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15">
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -2875,7 +2853,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="54"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:15">
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -2890,7 +2868,7 @@
       <c r="N8" s="53"/>
       <c r="O8" s="54"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15">
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -2905,7 +2883,7 @@
       <c r="N9" s="53"/>
       <c r="O9" s="54"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15">
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -2920,7 +2898,7 @@
       <c r="N10" s="53"/>
       <c r="O10" s="54"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15">
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -2935,7 +2913,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="54"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15">
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -2950,7 +2928,7 @@
       <c r="N12" s="53"/>
       <c r="O12" s="54"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15">
       <c r="C13" s="52"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -2965,7 +2943,7 @@
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15">
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -2980,7 +2958,7 @@
       <c r="N14" s="53"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:15" ht="14.45" thickBot="1">
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="242" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B08B8A7F-B370-4E6F-89A4-5E8277725B8E}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC214A2-3F1A-4FE2-B50A-312E17915A97}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="5436" yWindow="4404" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -695,8 +695,25 @@
         <rFont val="Yu Gothic UI"/>
       </rPr>
       <t xml:space="preserve">02. Setting: 
-- define DECIPHER
-03. Expectation: </t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">- define DECIPHER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
     </r>
     <r>
       <rPr>
@@ -2291,7 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28627"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2DC214A2-3F1A-4FE2-B50A-312E17915A97}"/>
+  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE304386-3BF7-4292-B053-5E64F1DCBAAD}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="5436" yWindow="4404" windowWidth="17280" windowHeight="8880" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -428,6 +428,21 @@
     <t>Automation</t>
   </si>
   <si>
+    <t>Scoreboard checking</t>
+  </si>
+  <si>
+    <t>aes_test_single_enc</t>
+  </si>
+  <si>
+    <t>AES_CONTINUOUS_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>aes_test_continuous_enc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_CASE </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -441,13 +456,33 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: </t>
     </r>
     <r>
       <rPr>
@@ -467,26 +502,6 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
       <t>03. Expectation:</t>
     </r>
     <r>
@@ -500,165 +515,6 @@
     </r>
   </si>
   <si>
-    <t>Scoreboard checking</t>
-  </si>
-  <si>
-    <t>aes_test_single_enc</t>
-  </si>
-  <si>
-    <t>AES_CONTINUOUS_ENCRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <t>aes_test_continuous_enc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_CASE </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_special_case</t>
   </si>
   <si>
@@ -668,63 +524,6 @@
     <t>AES_SINGLE_DECRYPTION</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">Verifies the decryption of a single data block using a randomly generated key and plaintext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">- define DECIPHER
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_single_dec</t>
   </si>
   <si>
@@ -732,92 +531,6 @@
   </si>
   <si>
     <t>AES_CONTINUOUS_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
   </si>
   <si>
     <t>aes_test_continuous_dec</t>
@@ -922,16 +635,313 @@
     <t>NO CONTENT HERE
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">01. Target Check: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">Verifies the decryption of a single data block using a randomly generated key and plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">- define DECIPHER
+- randomize data
+- Repeat 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF000000"/>
+        <rFont val="Yu Gothic UI"/>
+      </rPr>
+      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- define DECIPHER
+- randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- define CIPHER
+- randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- define CIPHER
+- randomize data
+- Repeat 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -967,7 +977,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1031,7 +1041,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1469,6 +1479,9 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1510,9 +1523,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1605,10 +1615,25 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1">
+        <row r="5">
+          <cell r="D5">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1883,27 +1908,27 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.75" customWidth="1"/>
-    <col min="3" max="3" width="48.25" customWidth="1"/>
-    <col min="4" max="4" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.9">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-    </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1911,7 +1936,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1921,7 +1946,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1931,7 +1956,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1941,7 +1966,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1949,7 +1974,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1969,7 +1994,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1977,7 +2002,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1985,7 +2010,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1993,7 +2018,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2001,7 +2026,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2009,7 +2034,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -2017,7 +2042,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2025,7 +2050,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2033,7 +2058,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2041,7 +2066,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2049,7 +2074,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2057,7 +2082,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2065,7 +2090,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2073,7 +2098,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2081,7 +2106,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2089,7 +2114,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2097,7 +2122,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2105,7 +2130,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2113,7 +2138,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2121,7 +2146,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2129,7 +2154,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2137,7 +2162,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2145,7 +2170,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2153,7 +2178,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2161,7 +2186,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2169,7 +2194,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2177,7 +2202,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2185,7 +2210,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2193,7 +2218,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2201,7 +2226,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2209,7 +2234,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2217,7 +2242,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2225,7 +2250,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2233,7 +2258,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2241,7 +2266,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2249,7 +2274,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2257,7 +2282,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2265,7 +2290,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2273,7 +2298,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2281,7 +2306,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2308,25 +2333,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.375" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.75" style="19"/>
-    <col min="6" max="6" width="29.75" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.875" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.75" style="19"/>
-    <col min="11" max="11" width="30.625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.75" style="19"/>
+    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="19"/>
+    <col min="6" max="6" width="29.7265625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="14.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2334,7 +2359,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="22.9">
+    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2342,7 +2367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2350,7 +2375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2358,13 +2383,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="B6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="48"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2372,7 +2397,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>21</v>
       </c>
@@ -2380,7 +2405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2415,22 +2440,22 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A11" s="45" t="s">
+    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="45"/>
-      <c r="K11" s="46"/>
-    </row>
-    <row r="12" spans="1:11" ht="36.950000000000003" customHeight="1">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2461,7 +2486,7 @@
       </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1">
+    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -2492,7 +2517,7 @@
       </c>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" ht="31.15">
+    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.35">
       <c r="A14" s="20">
         <v>3</v>
       </c>
@@ -2523,22 +2548,22 @@
       </c>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
-    </row>
-    <row r="16" spans="1:11" ht="39">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="47"/>
+    </row>
+    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>4</v>
       </c>
@@ -2555,26 +2580,26 @@
         <v>47</v>
       </c>
       <c r="F16" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>48</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>49</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="39">
+    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
@@ -2586,26 +2611,26 @@
         <v>47</v>
       </c>
       <c r="F17" s="42" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" ht="40.15" customHeight="1">
+    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="20">
         <v>6</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>19</v>
@@ -2617,41 +2642,41 @@
         <v>47</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G18" s="20" t="s">
         <v>36</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J18" s="20" t="s">
         <v>38</v>
       </c>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" ht="14.45" customHeight="1">
-      <c r="A19" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="45"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="45"/>
-      <c r="K19" s="46"/>
-    </row>
-    <row r="20" spans="1:11" ht="52.5">
+    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="47"/>
+    </row>
+    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
@@ -2662,27 +2687,27 @@
       <c r="E20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="58" t="s">
-        <v>59</v>
+      <c r="F20" s="44" t="s">
+        <v>70</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="39">
+    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>19</v>
@@ -2694,52 +2719,52 @@
         <v>47</v>
       </c>
       <c r="F21" s="43" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="G21" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" ht="46.9">
+    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="38" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
@@ -2747,7 +2772,7 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2755,41 +2780,41 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>33</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C29" s="26" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
@@ -2817,178 +2842,178 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.9"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.75" style="14"/>
+    <col min="1" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="14.45" thickBot="1"/>
-    <row r="5" spans="3:15">
-      <c r="C5" s="49" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-    </row>
-    <row r="6" spans="3:15">
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-    </row>
-    <row r="7" spans="3:15">
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="3:15">
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="3:15">
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="3:15">
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="3:15">
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="3:15">
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="3:15">
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-    </row>
-    <row r="14" spans="3:15">
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="3:15" ht="14.45" thickBot="1">
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
+    </row>
+    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="252" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE304386-3BF7-4292-B053-5E64F1DCBAAD}"/>
+  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6E329C-F2C5-4CF3-A735-AFB1C755833C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
   <si>
     <t>HISTORY</t>
   </si>
@@ -153,6 +153,18 @@
     <t>Manual</t>
   </si>
   <si>
+    <t>Waveform checking</t>
+  </si>
+  <si>
+    <t>aes_test_reset</t>
+  </si>
+  <si>
+    <t>VinhNH12</t>
+  </si>
+  <si>
+    <t>AES_RESET_DURING_ENCRYPTION</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -166,23 +178,31 @@
     </r>
     <r>
       <rPr>
-        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the encryption pr</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
 </t>
     </r>
     <r>
@@ -193,16 +213,16 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>02. Setting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
 </t>
     </r>
     <r>
@@ -226,16 +246,10 @@
     </r>
   </si>
   <si>
-    <t>Waveform checking</t>
-  </si>
-  <si>
-    <t>aes_test_reset</t>
-  </si>
-  <si>
-    <t>VinhNH12</t>
-  </si>
-  <si>
-    <t>AES_RESET_DURING_ENCRYPTION</t>
+    <t>aes_test_reset_enc</t>
+  </si>
+  <si>
+    <t>AES_RESET_DURING_DECRYPTION</t>
   </si>
   <si>
     <r>
@@ -251,12 +265,22 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure the decryption pr</t>
     </r>
     <r>
       <rPr>
@@ -286,84 +310,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <t>aes_test_reset_enc</t>
-  </si>
-  <si>
-    <t>AES_RESET_DURING_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ensure the decryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
+      <t xml:space="preserve">02. Setting: </t>
     </r>
     <r>
       <rPr>
@@ -383,26 +330,6 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
       <t>03. Expectation</t>
     </r>
     <r>
@@ -438,84 +365,6 @@
   </si>
   <si>
     <t>aes_test_continuous_enc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_CASE </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <t>aes_test_special_case</t>
   </si>
   <si>
     <t>Decryption Test</t>
@@ -636,13 +485,249 @@
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
   <si>
+    <t xml:space="preserve">AES_SPECIAL_CASE_ENCRYPTION </t>
+  </si>
+  <si>
+    <t>aes_test_special_case_enc</t>
+  </si>
+  <si>
+    <t>aes_test_special_case_dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_CASE_DECRYPTION </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
         <i/>
         <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Randomize data
+- Repeat 1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">01. Target Check: </t>
     </r>
@@ -651,6 +736,7 @@
         <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Verifies the decryption of a single data block using a randomly generated key and plaintext.
 </t>
@@ -661,6 +747,7 @@
         <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">02. Setting: 
 </t>
@@ -670,9 +757,10 @@
         <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
-      </rPr>
-      <t xml:space="preserve">- define DECIPHER
-- randomize data
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
 - Repeat 1
 </t>
     </r>
@@ -682,6 +770,7 @@
         <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">03. Expectation: </t>
     </r>
@@ -690,6 +779,7 @@
         <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
     </r>
@@ -755,8 +845,8 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- define DECIPHER
-- randomize data
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
 - Repeat 100
 </t>
     </r>
@@ -796,22 +886,96 @@
     </r>
     <r>
       <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the decryption of a block of data by creating special cases for the key and the plain text.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="3"/>
         <charset val="128"/>
       </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t xml:space="preserve">: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
 </t>
     </r>
     <r>
@@ -822,114 +986,37 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">02. Setting:
+      <t>02. Setting</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: 
+-Define cipher
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- define CIPHER
-- randomize data
-- Repeat 100
-</t>
-    </r>
-    <r>
-      <rPr>
         <b/>
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- define CIPHER
-- randomize data
-- Repeat 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
     </r>
   </si>
 </sst>
@@ -1066,17 +1153,20 @@
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="6"/>
       <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1630,10 +1720,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2331,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:L30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2472,17 +2558,17 @@
         <v>34</v>
       </c>
       <c r="F12" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="H12" s="38"/>
       <c r="I12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="K12" s="20"/>
     </row>
@@ -2491,7 +2577,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
@@ -2503,17 +2589,17 @@
         <v>34</v>
       </c>
       <c r="F13" s="42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13" s="20"/>
       <c r="I13" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="20"/>
     </row>
@@ -2522,7 +2608,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="20" t="s">
         <v>19</v>
@@ -2534,23 +2620,23 @@
         <v>34</v>
       </c>
       <c r="F14" s="42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="20"/>
       <c r="I14" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J14" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B15" s="46"/>
       <c r="C15" s="46"/>
@@ -2568,7 +2654,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
@@ -2577,20 +2663,20 @@
         <v>33</v>
       </c>
       <c r="E16" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>73</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="H16" s="20"/>
       <c r="I16" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K16" s="20"/>
     </row>
@@ -2599,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
@@ -2608,20 +2694,20 @@
         <v>33</v>
       </c>
       <c r="E17" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>70</v>
+      </c>
+      <c r="G17" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="H17" s="20"/>
       <c r="I17" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="20"/>
     </row>
@@ -2630,7 +2716,7 @@
         <v>6</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="C18" s="20" t="s">
         <v>19</v>
@@ -2638,27 +2724,27 @@
       <c r="D18" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>36</v>
       </c>
       <c r="H18" s="20"/>
       <c r="I18" s="20" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="J18" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="46" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B19" s="46"/>
       <c r="C19" s="46"/>
@@ -2676,7 +2762,7 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
@@ -2685,20 +2771,20 @@
         <v>33</v>
       </c>
       <c r="E20" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="G20" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="H20" s="20"/>
       <c r="I20" s="20" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K20" s="20"/>
     </row>
@@ -2707,7 +2793,7 @@
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>19</v>
@@ -2716,108 +2802,139 @@
         <v>33</v>
       </c>
       <c r="E21" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F21" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="20" t="s">
         <v>47</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="H21" s="20"/>
       <c r="I21" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A22" s="20">
+        <v>9</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>75</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="A23" s="20"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="38" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="H23" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="I23" s="20"/>
+      <c r="J23" s="20"/>
+      <c r="K23" s="20"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C24" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.35">
-      <c r="A22" s="20"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C23" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>64</v>
-      </c>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="34"/>
+      <c r="D24" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" s="33"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F25" s="35"/>
+      <c r="E25" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" s="34"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
-      <c r="D26" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="F26" s="36"/>
+      <c r="D26" s="29"/>
+      <c r="E26" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="35"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
-      <c r="D27" s="31" t="s">
+      <c r="D27" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="F27" s="36"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C28" s="25"/>
+      <c r="D28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="F27" s="37"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C28" s="25" t="s">
+      <c r="E28" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="37"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C29" s="26" t="s">
+      <c r="D29" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="34"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C30" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D29" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="35"/>
+      <c r="D30" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="27"/>
+      <c r="F30" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2850,7 +2967,7 @@
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
       <c r="C5" s="50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D5" s="51"/>
       <c r="E5" s="51"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="279" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B6E329C-F2C5-4CF3-A735-AFB1C755833C}"/>
+  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03BF4E59-A1C4-41B2-8382-138A6C5EDC05}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
   <si>
     <t>HISTORY</t>
   </si>
@@ -108,9 +108,6 @@
     <t>High</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
@@ -144,9 +141,6 @@
     <t>Reset Test</t>
   </si>
   <si>
-    <t>AES_RESET</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -156,191 +150,10 @@
     <t>Waveform checking</t>
   </si>
   <si>
-    <t>aes_test_reset</t>
-  </si>
-  <si>
     <t>VinhNH12</t>
   </si>
   <si>
-    <t>AES_RESET_DURING_ENCRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
     <t>aes_test_reset_enc</t>
-  </si>
-  <si>
-    <t>AES_RESET_DURING_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ensure the decryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
   </si>
   <si>
     <t>aes_test_reset_dec</t>
@@ -652,79 +465,6 @@
         <b/>
         <i/>
         <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
         <color rgb="FF000000"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -873,6 +613,12 @@
     </r>
   </si>
   <si>
+    <t>AES_RESET_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>AES_RESET_DECRYPTION</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -882,6 +628,211 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure the decryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: Ensure the encryption pr</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ocess returns to the default state after reset.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- define CIPHER
+-  aes_multi_seq
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- define CIPHER
+- aes_single_seq
+</t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- aes_multi_seq
+- aes_reset_seq
+- repeat(10)</t>
+  </si>
+  <si>
+    <t>- define CIPHER
+- aes_multi_seq
+- aes_reset_seq
+- repeat(10)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
       <t>01. Target Check:</t>
     </r>
     <r>
@@ -923,6 +874,7 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">- Define DECIPHER
+- Assign data with specific values
 </t>
     </r>
     <r>
@@ -955,7 +907,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>01. Target Check</t>
+      <t>01. Target Check:</t>
     </r>
     <r>
       <rPr>
@@ -963,19 +915,18 @@
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Ensure the AES IP returns to the default state after reset.
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
 </t>
     </r>
     <r>
@@ -986,38 +937,70 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>02. Setting</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: 
--Define cipher
+      <t xml:space="preserve">02. Setting: 
 </t>
     </r>
     <r>
       <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="6"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- define DECIPHER
+-  aes_multi_seq
+</t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- aes_single_seq</t>
+  </si>
+  <si>
+    <t>- define CIPHER
+- data_input[0], key[0] =
+128'h00000000000000000000000000000000
+- data_input[1], key[1] =
+128'hFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFF
+- data_input[2], key[2] =
+128'hAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA
+- data_input[3], key[3] =
+128'h55555555555555555555555555555555</t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- data_input[0], key[0] =
+128'h00000000000000000000000000000000
+- data_input[1], key[1] =
+128'hFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFFF
+- data_input[2], key[2] =
+128'hAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAAA
+- data_input[3], key[3] =
+128'h55555555555555555555555555555555</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1479,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1563,15 +1546,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1613,6 +1587,21 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2005,14 +1994,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
@@ -2417,10 +2406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:L30"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="88" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2430,7 +2419,7 @@
     <col min="3" max="5" width="8.7265625" style="19"/>
     <col min="6" max="6" width="29.7265625" style="19" customWidth="1"/>
     <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="14.90625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36" style="19" customWidth="1"/>
     <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="19"/>
     <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
@@ -2470,25 +2459,25 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="48" t="s">
+      <c r="B6" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="49"/>
+      <c r="C6" s="46"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="41" t="s">
         <v>21</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2496,452 +2485,437 @@
         <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" ht="37" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="43"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="44"/>
+    </row>
+    <row r="12" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="H12" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>37</v>
-      </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="H13" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="42" t="s">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="43"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="44"/>
+    </row>
+    <row r="15" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="20">
+        <v>3</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="G13" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20" t="s">
+      <c r="F15" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="32" x14ac:dyDescent="0.35">
-      <c r="A14" s="20">
-        <v>3</v>
-      </c>
-      <c r="B14" s="20" t="s">
+      <c r="H15" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="J15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F14" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="G14" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="46"/>
-      <c r="J15" s="46"/>
-      <c r="K15" s="47"/>
-    </row>
-    <row r="16" spans="1:11" ht="64" x14ac:dyDescent="0.35">
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>71</v>
+        <v>39</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>63</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H16" s="20"/>
+        <v>40</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>72</v>
+      </c>
       <c r="I16" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" ht="64" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="K17" s="20"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="43"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="44"/>
+    </row>
+    <row r="19" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="20">
+        <v>6</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="60" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="F17" s="42" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="20" t="s">
+      <c r="J19" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="J17" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="20">
-        <v>6</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="J18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="46"/>
-      <c r="G19" s="46"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="46"/>
-      <c r="J19" s="46"/>
-      <c r="K19" s="47"/>
-    </row>
-    <row r="20" spans="1:11" ht="64" x14ac:dyDescent="0.35">
+      <c r="K19" s="20"/>
+    </row>
+    <row r="20" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>73</v>
+        <v>39</v>
+      </c>
+      <c r="F20" s="59" t="s">
+        <v>66</v>
       </c>
       <c r="G20" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H20" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" ht="64" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D21" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="F21" s="43" t="s">
-        <v>74</v>
+        <v>31</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>76</v>
       </c>
       <c r="G21" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H21" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>54</v>
-      </c>
       <c r="K21" s="20"/>
     </row>
     <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.35">
-      <c r="A22" s="20">
-        <v>9</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>75</v>
-      </c>
-      <c r="G22" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>37</v>
-      </c>
+      <c r="A22" s="20"/>
+      <c r="B22" s="20"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H22" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" ht="48" x14ac:dyDescent="0.35">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="20"/>
-      <c r="J23" s="20"/>
-      <c r="K23" s="20"/>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F23" s="33"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F24" s="33"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F24" s="34"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
-      <c r="E25" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" s="34"/>
+      <c r="E25" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="35"/>
+      <c r="D26" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F26" s="36"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
-      <c r="D27" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="23" t="s">
-        <v>61</v>
-      </c>
-      <c r="F27" s="36"/>
+      <c r="D27" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="37"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C28" s="25"/>
-      <c r="D28" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="37"/>
+      <c r="C28" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="34"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C29" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D29" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="34"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C30" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="35"/>
+      <c r="C29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="27"/>
+      <c r="F29" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A19:K19"/>
+    <mergeCell ref="A18:K18"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A15:K15"/>
+    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2966,171 +2940,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="C5" s="47" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="48"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+      <c r="N5" s="48"/>
+      <c r="O5" s="49"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="51"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="51"/>
+      <c r="M6" s="51"/>
+      <c r="N6" s="51"/>
+      <c r="O6" s="52"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="52"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="51"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="51"/>
+      <c r="M8" s="51"/>
+      <c r="N8" s="51"/>
+      <c r="O8" s="52"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="51"/>
+      <c r="J9" s="51"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="52"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="51"/>
+      <c r="J10" s="51"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+      <c r="N10" s="51"/>
+      <c r="O10" s="52"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="52"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="52"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="52"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="52"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="376" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03BF4E59-A1C4-41B2-8382-138A6C5EDC05}"/>
+  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC932CB2-5DDC-4271-85AB-09CF78C4F465}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -111,9 +111,6 @@
     <t>Low</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
     <t>Item ID</t>
   </si>
   <si>
@@ -162,18 +159,12 @@
     <t>Encryption Test</t>
   </si>
   <si>
-    <t>AES_SINGLE_ENCRYPTION</t>
-  </si>
-  <si>
     <t>Automation</t>
   </si>
   <si>
     <t>Scoreboard checking</t>
   </si>
   <si>
-    <t>aes_test_single_enc</t>
-  </si>
-  <si>
     <t>AES_CONTINUOUS_ENCRYPTION</t>
   </si>
   <si>
@@ -181,12 +172,6 @@
   </si>
   <si>
     <t>Decryption Test</t>
-  </si>
-  <si>
-    <t>AES_SINGLE_DECRYPTION</t>
-  </si>
-  <si>
-    <t>aes_test_single_dec</t>
   </si>
   <si>
     <t>PhuocHVD</t>
@@ -301,514 +286,14 @@
     <t xml:space="preserve">AES_SPECIAL_CASE_ENCRYPTION </t>
   </si>
   <si>
-    <t>aes_test_special_case_enc</t>
-  </si>
-  <si>
-    <t>aes_test_special_case_dec</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_CASE_DECRYPTION </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Randomize data
-- Repeat 100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the encryption of a single data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Randomize data
-- Repeat 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">01. Target Check: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verifies the decryption of a single data block using a randomly generated key and plaintext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Repeat 1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color rgb="FF000000"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verifies the decryption of a multi data block using a randomly generated key and plaintext.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Repeat 100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t>AES_RESET_ENCRYPTION</t>
   </si>
   <si>
     <t>AES_RESET_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ensure the decryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Randomize time for reset signal
-- Repeat 10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: Ensure the encryption pr</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ocess returns to the default state after reset.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- Define CIPHER
-- Randomize data
-- Randomize time for reset signal
-- Repeat 10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <t>8</t>
   </si>
   <si>
     <t xml:space="preserve">- define CIPHER
 -  aes_multi_seq
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- define CIPHER
-- aes_single_seq
 </t>
   </si>
   <si>
@@ -824,161 +309,9 @@
 - repeat(10)</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the decryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Verify the encryption of a block of data by creating special cases for the key and the plain text.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">- define DECIPHER
 -  aes_multi_seq
 </t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- aes_single_seq</t>
   </si>
   <si>
     <t>- define CIPHER
@@ -1002,12 +335,583 @@
 - data_input[3], key[3] =
 128'h55555555555555555555555555555555</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the AES IP operates correctly in encryption mode when defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Set data_input, key values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- define CIPHER
+- data_input = 00112233445566778899aabbccddeeff
+- key = 000102030405060708090a0b0c0d0e0f </t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- data_input = 69c4e0d86a7b0430d8cdb78070b4c55a
+- key = 13111d7fe3944a17f307a78b4d2b30c5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the AES IP operates correctly in decryption mode when defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Set data_input, key values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Ensure the encryption process returns to the default state after reset release.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Ensure the decryption process returns to the default state after reset release.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_DATA_DECRYPTION </t>
+  </si>
+  <si>
+    <t>aes_test_special_data_dec</t>
+  </si>
+  <si>
+    <t>aes_test_special_data_enc</t>
+  </si>
+  <si>
+    <t>aes_test_definetion_enc</t>
+  </si>
+  <si>
+    <t>AES_MODE_DEFINETION_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>AES_MODE_DEFINETION_DECRYPTION</t>
+  </si>
+  <si>
+    <t>aes_test_definetion_dec</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the decryption of a multi data block using a randomly generated key and Ciphertext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify the decryption of a block of data by creating special datas for the key and the Ciphertext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Randomize data
+- Repeat 1000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify the encryption of a block of data by creating special datas for the key and the plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1103,13 +1007,6 @@
       <charset val="128"/>
     </font>
     <font>
-      <i/>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1127,27 +1024,6 @@
       <b/>
       <sz val="6"/>
       <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="6"/>
-      <color rgb="FF000000"/>
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
@@ -1546,6 +1422,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1588,21 +1473,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1994,14 +1868,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
@@ -2408,8 +2282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" zoomScale="88" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2419,7 +2293,7 @@
     <col min="3" max="5" width="8.7265625" style="19"/>
     <col min="6" max="6" width="29.7265625" style="19" customWidth="1"/>
     <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="36" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
     <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="19"/>
     <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
@@ -2459,17 +2333,17 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="49"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -2477,7 +2351,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2485,195 +2359,195 @@
         <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="22" t="s">
+      <c r="D10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="E10" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>1</v>
       </c>
       <c r="G10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H10" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="22" t="s">
+      <c r="I10" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="J10" s="22" t="s">
         <v>28</v>
-      </c>
-      <c r="J10" s="22" t="s">
-        <v>29</v>
       </c>
       <c r="K10" s="22" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="43" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="43"/>
-      <c r="I11" s="43"/>
-      <c r="J11" s="43"/>
-      <c r="K11" s="44"/>
-    </row>
-    <row r="12" spans="1:11" ht="65" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="47"/>
+    </row>
+    <row r="12" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="F12" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F12" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="G12" s="20" t="s">
+      <c r="H12" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H12" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="F13" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="57" t="s">
-        <v>69</v>
-      </c>
-      <c r="G13" s="20" t="s">
+      <c r="H13" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="I13" s="20" t="s">
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="J13" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
-      <c r="K14" s="44"/>
-    </row>
-    <row r="15" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
+    </row>
+    <row r="15" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>38</v>
+        <v>73</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H15" s="56" t="s">
-        <v>73</v>
-      </c>
       <c r="I15" s="20" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="57" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>80</v>
       </c>
       <c r="G16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="H16" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="I16" s="20" t="s">
-        <v>43</v>
-      </c>
       <c r="J16" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K16" s="20"/>
     </row>
@@ -2682,112 +2556,112 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="57" t="s">
-        <v>77</v>
+      <c r="F17" s="43" t="s">
+        <v>81</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="56" t="s">
-        <v>80</v>
+        <v>38</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>61</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="44"/>
-    </row>
-    <row r="19" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="46"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="47"/>
+    </row>
+    <row r="19" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D19" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="58" t="s">
+      <c r="F19" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H19" s="44" t="s">
         <v>65</v>
       </c>
-      <c r="G19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="60" t="s">
-        <v>79</v>
-      </c>
       <c r="I19" s="20" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" ht="65.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="F20" s="59" t="s">
-        <v>66</v>
+        <v>37</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>76</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H20" s="60" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="H20" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K20" s="20"/>
     </row>
@@ -2796,31 +2670,31 @@
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="59" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="60" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="F21" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H21" s="56" t="s">
-        <v>81</v>
-      </c>
       <c r="I21" s="20" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K21" s="20"/>
     </row>
@@ -2831,13 +2705,13 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="38" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="G22" s="38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H22" s="38" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2845,13 +2719,13 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F23" s="33"/>
     </row>
@@ -2859,7 +2733,7 @@
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F24" s="34"/>
     </row>
@@ -2867,17 +2741,17 @@
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F25" s="35"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F26" s="36"/>
     </row>
@@ -2887,7 +2761,7 @@
         <v>4</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="F27" s="37"/>
     </row>
@@ -2896,7 +2770,7 @@
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="F28" s="34"/>
     </row>
@@ -2905,7 +2779,7 @@
         <v>20</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
@@ -2917,7 +2791,7 @@
     <mergeCell ref="A11:K11"/>
     <mergeCell ref="A14:K14"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2940,171 +2814,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="48"/>
-      <c r="N5" s="48"/>
-      <c r="O5" s="49"/>
+      <c r="C5" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="52"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="50"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="51"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="51"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="51"/>
-      <c r="N6" s="51"/>
-      <c r="O6" s="52"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="50"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="52"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="55"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="50"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="51"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="51"/>
-      <c r="L8" s="51"/>
-      <c r="M8" s="51"/>
-      <c r="N8" s="51"/>
-      <c r="O8" s="52"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="50"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="51"/>
-      <c r="K9" s="51"/>
-      <c r="L9" s="51"/>
-      <c r="M9" s="51"/>
-      <c r="N9" s="51"/>
-      <c r="O9" s="52"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="55"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="50"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-      <c r="H10" s="51"/>
-      <c r="I10" s="51"/>
-      <c r="J10" s="51"/>
-      <c r="K10" s="51"/>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-      <c r="N10" s="51"/>
-      <c r="O10" s="52"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="55"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="50"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="52"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="55"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="50"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="51"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="51"/>
-      <c r="K12" s="51"/>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-      <c r="N12" s="51"/>
-      <c r="O12" s="52"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="55"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="52"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="55"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="50"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="51"/>
-      <c r="I14" s="51"/>
-      <c r="J14" s="51"/>
-      <c r="K14" s="51"/>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-      <c r="N14" s="51"/>
-      <c r="O14" s="52"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="55"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="55"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="445" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC932CB2-5DDC-4271-85AB-09CF78C4F465}"/>
+  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B956E3F9-9C67-47A5-B40C-2C5D817BEC7C}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
   <si>
     <t>HISTORY</t>
   </si>
@@ -905,6 +905,12 @@
       </rPr>
       <t>The actual data (from DUT) = the golden data ( from c model )</t>
     </r>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -1431,14 +1437,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1473,10 +1476,11 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1868,14 +1872,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
@@ -2280,10 +2284,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:L29"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="45" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19:K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2300,7 +2304,7 @@
     <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2308,7 +2312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2316,7 +2320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2332,13 +2336,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="B6" s="48" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="49"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C6" s="48"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2346,7 +2350,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2354,7 +2358,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2386,25 +2390,31 @@
         <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="46" t="s">
+      <c r="M10"/>
+    </row>
+    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="47"/>
-    </row>
-    <row r="12" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="58"/>
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="59"/>
+      <c r="M11"/>
+    </row>
+    <row r="12" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2435,9 +2445,13 @@
       <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K12" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L12" s="20"/>
+      <c r="M12"/>
+    </row>
+    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -2468,24 +2482,30 @@
       <c r="J13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="46" t="s">
+      <c r="K13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="20"/>
+      <c r="M13"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="1:11" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="58"/>
+      <c r="C14" s="58"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58"/>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="58"/>
+      <c r="J14" s="58"/>
+      <c r="K14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14"/>
+    </row>
+    <row r="15" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>3</v>
       </c>
@@ -2516,9 +2536,13 @@
       <c r="J15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K15" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15"/>
+    </row>
+    <row r="16" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>4</v>
       </c>
@@ -2549,9 +2573,13 @@
       <c r="J16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K16" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L16" s="20"/>
+      <c r="M16"/>
+    </row>
+    <row r="17" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>5</v>
       </c>
@@ -2582,24 +2610,30 @@
       <c r="J17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="46" t="s">
+      <c r="K17" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="20"/>
+      <c r="M17"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
-      <c r="G18" s="46"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="46"/>
-      <c r="J18" s="46"/>
-      <c r="K18" s="47"/>
-    </row>
-    <row r="19" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="58"/>
+      <c r="L18" s="59"/>
+      <c r="M18"/>
+    </row>
+    <row r="19" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>6</v>
       </c>
@@ -2630,9 +2664,13 @@
       <c r="J19" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K19" s="20"/>
-    </row>
-    <row r="20" spans="1:11" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K19" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L19" s="20"/>
+      <c r="M19"/>
+    </row>
+    <row r="20" spans="1:13" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2663,9 +2701,13 @@
       <c r="J20" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21" spans="1:11" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="K20" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L20" s="20"/>
+      <c r="M20"/>
+    </row>
+    <row r="21" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>8</v>
       </c>
@@ -2681,10 +2723,10 @@
       <c r="E21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="42" t="s">
@@ -2696,9 +2738,13 @@
       <c r="J21" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22" spans="1:11" ht="48" x14ac:dyDescent="0.35">
+      <c r="K21" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L21" s="20"/>
+      <c r="M21"/>
+    </row>
+    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2716,8 +2762,10 @@
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="L22" s="20"/>
+      <c r="M22"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
         <v>48</v>
       </c>
@@ -2729,7 +2777,7 @@
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
@@ -2737,7 +2785,7 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2745,7 +2793,7 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>30</v>
@@ -2755,7 +2803,7 @@
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
@@ -2765,7 +2813,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
@@ -2774,7 +2822,7 @@
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
@@ -2785,11 +2833,8 @@
       <c r="F29" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A18:K18"/>
+  <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A14:K14"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2803,7 +2848,7 @@
   </sheetPr>
   <dimension ref="C4:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
@@ -2814,171 +2859,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="52"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="51"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="53"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="55"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="55"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="54"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="55"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="53"/>
+      <c r="O8" s="54"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="55"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="53"/>
+      <c r="O9" s="54"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="55"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="53"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="54"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="55"/>
+      <c r="C11" s="52"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="54"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="55"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="54"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="55"/>
+      <c r="C13" s="52"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="54"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="55"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="53"/>
+      <c r="O14" s="54"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57"/>
-      <c r="N15" s="57"/>
-      <c r="O15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="57"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="464" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B956E3F9-9C67-47A5-B40C-2C5D817BEC7C}"/>
+  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4A3445-EEB4-4346-8779-CA700214F3FC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
   <si>
     <t>HISTORY</t>
   </si>
@@ -295,18 +295,6 @@
     <t xml:space="preserve">- define CIPHER
 -  aes_multi_seq
 </t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- aes_multi_seq
-- aes_reset_seq
-- repeat(10)</t>
-  </si>
-  <si>
-    <t>- define CIPHER
-- aes_multi_seq
-- aes_reset_seq
-- repeat(10)</t>
   </si>
   <si>
     <t xml:space="preserve">- define DECIPHER
@@ -912,6 +900,18 @@
   <si>
     <t>Pass</t>
   </si>
+  <si>
+    <t>- define DECIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
+  </si>
+  <si>
+    <t>- define CIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
+  </si>
 </sst>
 </file>
 
@@ -921,7 +921,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -957,7 +957,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1014,7 +1014,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1587,6 +1587,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1861,17 +1865,17 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1881,7 +1885,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1889,7 +1893,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1899,7 +1903,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1919,7 +1923,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1927,7 +1931,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1955,7 +1959,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1963,7 +1967,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1971,7 +1975,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1979,7 +1983,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1987,7 +1991,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1995,7 +1999,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2003,7 +2007,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2011,7 +2015,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2019,7 +2023,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2027,7 +2031,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2035,7 +2039,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2043,7 +2047,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2051,7 +2055,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2059,7 +2063,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2067,7 +2071,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2075,7 +2079,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2083,7 +2087,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2091,7 +2095,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2099,7 +2103,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2107,7 +2111,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2115,7 +2119,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2123,7 +2127,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2131,7 +2135,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2139,7 +2143,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2147,7 +2151,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2155,7 +2159,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2163,7 +2167,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2171,7 +2175,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2179,7 +2183,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2187,7 +2191,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2195,7 +2199,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2203,7 +2207,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2211,7 +2215,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2219,7 +2223,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2227,7 +2231,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2235,7 +2239,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2243,7 +2247,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2251,7 +2255,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2259,7 +2263,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2284,27 +2288,27 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:M29"/>
+  <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="45" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19:K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" style="19"/>
-    <col min="6" max="6" width="29.7265625" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="19"/>
-    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.69921875" style="19"/>
+    <col min="6" max="6" width="29.69921875" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="19"/>
+    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2312,7 +2316,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2320,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2328,7 +2332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2336,29 +2340,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="48"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2390,14 +2394,14 @@
         <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="58" t="s">
         <v>29</v>
       </c>
@@ -2414,7 +2418,7 @@
       <c r="L11" s="59"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2431,13 +2435,13 @@
         <v>31</v>
       </c>
       <c r="F12" s="43" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -2445,13 +2449,11 @@
       <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="60" t="s">
-        <v>83</v>
-      </c>
+      <c r="K12" s="60"/>
       <c r="L12" s="20"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -2468,13 +2470,13 @@
         <v>31</v>
       </c>
       <c r="F13" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>35</v>
@@ -2482,13 +2484,11 @@
       <c r="J13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="60" t="s">
-        <v>83</v>
-      </c>
+      <c r="K13" s="60"/>
       <c r="L13" s="20"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="58" t="s">
         <v>36</v>
       </c>
@@ -2505,12 +2505,12 @@
       <c r="L14" s="59"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" ht="62" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>19</v>
@@ -2522,27 +2522,27 @@
         <v>31</v>
       </c>
       <c r="F15" s="43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L15" s="20"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>4</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>37</v>
       </c>
       <c r="F16" s="43" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>38</v>
@@ -2574,12 +2574,12 @@
         <v>33</v>
       </c>
       <c r="K16" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L16" s="20"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>5</v>
       </c>
@@ -2596,27 +2596,27 @@
         <v>31</v>
       </c>
       <c r="F17" s="43" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>33</v>
       </c>
       <c r="K17" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L17" s="20"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="58" t="s">
         <v>41</v>
       </c>
@@ -2633,12 +2633,12 @@
       <c r="L18" s="59"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>19</v>
@@ -2650,27 +2650,27 @@
         <v>31</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L19" s="20"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" ht="80.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="80.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2687,13 +2687,13 @@
         <v>37</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H20" s="44" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I20" s="20" t="s">
         <v>44</v>
@@ -2702,17 +2702,17 @@
         <v>42</v>
       </c>
       <c r="K20" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L20" s="20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="106.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>20</v>
@@ -2724,27 +2724,27 @@
         <v>31</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>42</v>
       </c>
       <c r="K21" s="60" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L21" s="20"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2765,7 +2765,7 @@
       <c r="L22" s="20"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="24" t="s">
         <v>48</v>
       </c>
@@ -2777,7 +2777,7 @@
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
@@ -2785,7 +2785,7 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2793,7 +2793,7 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>30</v>
@@ -2803,7 +2803,7 @@
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
@@ -2822,7 +2822,7 @@
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
@@ -2831,6 +2831,11 @@
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G30" s="19" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2848,17 +2853,17 @@
   </sheetPr>
   <dimension ref="C4:O15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="16384" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C5" s="49" t="s">
         <v>53</v>
       </c>
@@ -2875,7 +2880,7 @@
       <c r="N5" s="50"/>
       <c r="O5" s="51"/>
     </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C6" s="52"/>
       <c r="D6" s="53"/>
       <c r="E6" s="53"/>
@@ -2890,7 +2895,7 @@
       <c r="N6" s="53"/>
       <c r="O6" s="54"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="52"/>
       <c r="D7" s="53"/>
       <c r="E7" s="53"/>
@@ -2905,7 +2910,7 @@
       <c r="N7" s="53"/>
       <c r="O7" s="54"/>
     </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C8" s="52"/>
       <c r="D8" s="53"/>
       <c r="E8" s="53"/>
@@ -2920,7 +2925,7 @@
       <c r="N8" s="53"/>
       <c r="O8" s="54"/>
     </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C9" s="52"/>
       <c r="D9" s="53"/>
       <c r="E9" s="53"/>
@@ -2935,7 +2940,7 @@
       <c r="N9" s="53"/>
       <c r="O9" s="54"/>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="52"/>
       <c r="D10" s="53"/>
       <c r="E10" s="53"/>
@@ -2950,7 +2955,7 @@
       <c r="N10" s="53"/>
       <c r="O10" s="54"/>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="52"/>
       <c r="D11" s="53"/>
       <c r="E11" s="53"/>
@@ -2965,7 +2970,7 @@
       <c r="N11" s="53"/>
       <c r="O11" s="54"/>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="52"/>
       <c r="D12" s="53"/>
       <c r="E12" s="53"/>
@@ -2980,7 +2985,7 @@
       <c r="N12" s="53"/>
       <c r="O12" s="54"/>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="52"/>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
@@ -2995,7 +3000,7 @@
       <c r="N13" s="53"/>
       <c r="O13" s="54"/>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
       <c r="E14" s="53"/>
@@ -3010,7 +3015,7 @@
       <c r="N14" s="53"/>
       <c r="O14" s="54"/>
     </row>
-    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="55"/>
       <c r="D15" s="56"/>
       <c r="E15" s="56"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="472" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C4A3445-EEB4-4346-8779-CA700214F3FC}"/>
+  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB0E8AE-3A92-480E-B9B2-9DEF1F242BCC}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
   <si>
     <t>HISTORY</t>
   </si>
@@ -165,9 +165,6 @@
     <t>Scoreboard checking</t>
   </si>
   <si>
-    <t>AES_CONTINUOUS_ENCRYPTION</t>
-  </si>
-  <si>
     <t>aes_test_continuous_enc</t>
   </si>
   <si>
@@ -175,9 +172,6 @@
   </si>
   <si>
     <t>PhuocHVD</t>
-  </si>
-  <si>
-    <t>AES_CONTINUOUS_DECRYPTION</t>
   </si>
   <si>
     <t>aes_test_continuous_dec</t>
@@ -281,9 +275,6 @@
   <si>
     <t>NO CONTENT HERE
 PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_CASE_ENCRYPTION </t>
   </si>
   <si>
     <t>AES_RESET_ENCRYPTION</t>
@@ -324,10 +315,129 @@
 128'h55555555555555555555555555555555</t>
   </si>
   <si>
+    <t xml:space="preserve">- define CIPHER
+- data_input = 00112233445566778899aabbccddeeff
+- key = 000102030405060708090a0b0c0d0e0f </t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- data_input = 69c4e0d86a7b0430d8cdb78070b4c55a
+- key = 13111d7fe3944a17f307a78b4d2b30c5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_DATA_DECRYPTION </t>
+  </si>
+  <si>
+    <t>aes_test_special_data_dec</t>
+  </si>
+  <si>
+    <t>aes_test_special_data_enc</t>
+  </si>
+  <si>
+    <t>aes_test_definetion_enc</t>
+  </si>
+  <si>
+    <t>AES_MODE_DEFINETION_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>AES_MODE_DEFINETION_DECRYPTION</t>
+  </si>
+  <si>
+    <t>aes_test_definetion_dec</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Result</t>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
+  </si>
+  <si>
+    <t>- define CIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_SPECIAL_DATA_ENCRYPTION </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the decryption of a multi data block using a randomly generated key and Ciphertext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -338,7 +448,7 @@
       <rPr>
         <b/>
         <i/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -347,11 +457,148 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the AES IP operates correctly in decryption mode when defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Set data_input, key values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Randomize data
+- Repeat 1000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Verify that the AES IP operates correctly in encryption mode when defined
 </t>
@@ -359,7 +606,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -369,7 +616,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -381,7 +628,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -390,7 +637,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -399,20 +646,142 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- define CIPHER
-- data_input = 00112233445566778899aabbccddeeff
-- key = 000102030405060708090a0b0c0d0e0f </t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- data_input = 69c4e0d86a7b0430d8cdb78070b4c55a
-- key = 13111d7fe3944a17f307a78b4d2b30c5</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t>AES_ENCRYPTION</t>
+  </si>
+  <si>
+    <t>AES_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -421,93 +790,18 @@
     </r>
     <r>
       <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Ensure that the encryption process releases data after a reset.
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve"> Verify that the AES IP operates correctly in decryption mode when defined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Set data_input, key values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Ensure the encryption process returns to the default state after reset release.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -516,7 +810,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -531,7 +825,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -540,7 +834,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -552,27 +846,27 @@
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Ensure the decryption process returns to the default state after reset release.
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check: E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nsure that the decryption process releases data after a reset.
 </t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -582,7 +876,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -596,7 +890,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
@@ -605,323 +899,24 @@
     </r>
     <r>
       <rPr>
-        <sz val="6"/>
+        <sz val="8"/>
         <color theme="1"/>
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
       <t>: data_out =128'h 0, finish = 1</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_DATA_DECRYPTION </t>
-  </si>
-  <si>
-    <t>aes_test_special_data_dec</t>
-  </si>
-  <si>
-    <t>aes_test_special_data_enc</t>
-  </si>
-  <si>
-    <t>aes_test_definetion_enc</t>
-  </si>
-  <si>
-    <t>AES_MODE_DEFINETION_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_MODE_DEFINETION_DECRYPTION</t>
-  </si>
-  <si>
-    <t>aes_test_definetion_dec</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the decryption of a multi data block using a randomly generated key and Ciphertext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Repeat 100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify the decryption of a block of data by creating special datas for the key and the Ciphertext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Randomize data
-- Repeat 1000
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify the encryption of a block of data by creating special datas for the key and the plaintext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- Define CIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- aes_multi_seq
-- set reset time
-- repeat(10)</t>
-  </si>
-  <si>
-    <t>- define CIPHER
-- aes_multi_seq
-- set reset time
-- repeat(10)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -957,7 +952,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1000,35 +995,28 @@
       <charset val="128"/>
     </font>
     <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <color theme="1"/>
-      <name val="Yu Gothic UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="6"/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="6"/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
       <family val="2"/>
@@ -1361,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1431,14 +1419,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1447,6 +1435,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1474,11 +1468,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1587,10 +1576,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1865,17 +1850,17 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="48.296875" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
       <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
@@ -1885,7 +1870,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="46"/>
     </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1893,7 +1878,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1903,7 +1888,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1913,7 +1898,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1923,7 +1908,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1931,7 +1916,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1951,7 +1936,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1959,7 +1944,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1967,7 +1952,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1975,7 +1960,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1983,7 +1968,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1991,7 +1976,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1999,7 +1984,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2007,7 +1992,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2015,7 +2000,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2023,7 +2008,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2031,7 +2016,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2039,7 +2024,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2047,7 +2032,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2055,7 +2040,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2063,7 +2048,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2071,7 +2056,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2079,7 +2064,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2087,7 +2072,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2095,7 +2080,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2103,7 +2088,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2111,7 +2096,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2119,7 +2104,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2127,7 +2112,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2135,7 +2120,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2143,7 +2128,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2151,7 +2136,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2159,7 +2144,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2167,7 +2152,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2175,7 +2160,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2183,7 +2168,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2191,7 +2176,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2199,7 +2184,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2207,7 +2192,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2215,7 +2200,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2223,7 +2208,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2231,7 +2216,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2239,7 +2224,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2247,7 +2232,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2255,7 +2240,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2263,7 +2248,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2290,25 +2275,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="97" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.69921875" style="19"/>
-    <col min="6" max="6" width="29.69921875" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="19"/>
-    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="19"/>
+    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.7265625" style="19"/>
+    <col min="6" max="6" width="31.453125" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2316,7 +2301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2324,7 +2309,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2332,7 +2317,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2340,29 +2325,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="48"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2394,36 +2379,36 @@
         <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="58" t="s">
+    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="59"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="20" t="s">
         <v>19</v>
@@ -2434,14 +2419,14 @@
       <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="43" t="s">
-        <v>65</v>
+      <c r="F12" s="45" t="s">
+        <v>81</v>
       </c>
       <c r="G12" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -2449,16 +2434,16 @@
       <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="60"/>
+      <c r="K12" s="44"/>
       <c r="L12" s="20"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C13" s="20" t="s">
         <v>19</v>
@@ -2469,14 +2454,14 @@
       <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="43" t="s">
-        <v>66</v>
+      <c r="F13" s="45" t="s">
+        <v>82</v>
       </c>
       <c r="G13" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>35</v>
@@ -2484,33 +2469,33 @@
       <c r="J13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="60"/>
+      <c r="K13" s="44"/>
       <c r="L13" s="20"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="58" t="s">
+    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="58"/>
-      <c r="D14" s="58"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="58"/>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="59"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" ht="61.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>19</v>
@@ -2521,33 +2506,31 @@
       <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="43" t="s">
-        <v>61</v>
+      <c r="F15" s="45" t="s">
+        <v>76</v>
       </c>
       <c r="G15" s="20" t="s">
         <v>32</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="60" t="s">
-        <v>81</v>
-      </c>
+      <c r="K15" s="44"/>
       <c r="L15" s="20"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>19</v>
@@ -2558,33 +2541,31 @@
       <c r="E16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="43" t="s">
-        <v>78</v>
+      <c r="F16" s="45" t="s">
+        <v>75</v>
       </c>
       <c r="G16" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="60" t="s">
-        <v>81</v>
-      </c>
+      <c r="K16" s="44"/>
       <c r="L16" s="20"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="103.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C17" s="20" t="s">
         <v>20</v>
@@ -2595,50 +2576,48 @@
       <c r="E17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="43" t="s">
-        <v>79</v>
+      <c r="F17" s="45" t="s">
+        <v>78</v>
       </c>
       <c r="G17" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="60" t="s">
-        <v>81</v>
-      </c>
+      <c r="K17" s="44"/>
       <c r="L17" s="20"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
-      <c r="G18" s="58"/>
-      <c r="H18" s="58"/>
-      <c r="I18" s="58"/>
-      <c r="J18" s="58"/>
-      <c r="K18" s="58"/>
-      <c r="L18" s="59"/>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="20">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C19" s="20" t="s">
         <v>19</v>
@@ -2649,33 +2628,31 @@
       <c r="E19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="43" t="s">
-        <v>64</v>
+      <c r="F19" s="45" t="s">
+        <v>74</v>
       </c>
       <c r="G19" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="H19" s="44" t="s">
-        <v>63</v>
+      <c r="H19" s="43" t="s">
+        <v>59</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K19" s="60" t="s">
-        <v>81</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K19" s="44"/>
       <c r="L19" s="20"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" ht="80.55" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C20" s="20" t="s">
         <v>19</v>
@@ -2686,33 +2663,31 @@
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="43" t="s">
-        <v>74</v>
+      <c r="F20" s="45" t="s">
+        <v>73</v>
       </c>
       <c r="G20" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="H20" s="44" t="s">
-        <v>58</v>
+      <c r="H20" s="43" t="s">
+        <v>55</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="60" t="s">
-        <v>81</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K20" s="44"/>
       <c r="L20" s="20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" ht="106.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C21" s="20" t="s">
         <v>20</v>
@@ -2724,40 +2699,38 @@
         <v>31</v>
       </c>
       <c r="F21" s="45" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G21" s="20" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="J21" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21" s="60" t="s">
-        <v>81</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="K21" s="44"/>
       <c r="L21" s="20"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="46.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="G22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="38" t="s">
         <v>45</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H22" s="38" t="s">
-        <v>47</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -2765,19 +2738,19 @@
       <c r="L22" s="20"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C23" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D23" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
@@ -2785,7 +2758,7 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2793,55 +2766,58 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="G30" s="19" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A18:L18"/>
+    <mergeCell ref="A14:L14"/>
+    <mergeCell ref="A11:L11"/>
   </mergeCells>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2857,178 +2833,178 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.69921875" style="14"/>
+    <col min="1" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
-      <c r="N5" s="50"/>
-      <c r="O5" s="51"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="52"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="54"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="52"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="54"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="52"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="53"/>
-      <c r="N8" s="53"/>
-      <c r="O8" s="54"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53"/>
-      <c r="M9" s="53"/>
-      <c r="N9" s="53"/>
-      <c r="O9" s="54"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="53"/>
-      <c r="I10" s="53"/>
-      <c r="J10" s="53"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="54"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="54"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="54"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="54"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="53"/>
-      <c r="O14" s="54"/>
-    </row>
-    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="55"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-      <c r="J15" s="56"/>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="57"/>
+    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+    </row>
+    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="526" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1DB0E8AE-3A92-480E-B9B2-9DEF1F242BCC}"/>
+  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8B94EC-411E-4E8F-B327-818827B0E977}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="19" r:id="rId2"/>
-    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
+    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId4"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
     <definedName name="Assertion_Coverage">#REF!</definedName>
@@ -2275,8 +2276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="59" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="B12" zoomScale="83" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2823,6 +2824,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8B94EC-411E-4E8F-B327-818827B0E977}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -917,7 +917,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -953,7 +953,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -997,18 +997,18 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="8"/>
       <color theme="1"/>
       <name val="Yu Gothic UI"/>
@@ -1426,9 +1426,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1436,12 +1433,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1470,6 +1461,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1577,6 +1577,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,27 +1855,27 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" customWidth="1"/>
-    <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="48.296875" customWidth="1"/>
+    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -1879,7 +1883,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -1889,7 +1893,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -1899,7 +1903,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -1909,7 +1913,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -1917,7 +1921,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1937,7 +1941,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -1945,7 +1949,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -1953,7 +1957,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -1961,7 +1965,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -1969,7 +1973,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -1977,7 +1981,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -1985,7 +1989,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -1993,7 +1997,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2001,7 +2005,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2009,7 +2013,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2017,7 +2021,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2025,7 +2029,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2033,7 +2037,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2041,7 +2045,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2049,7 +2053,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2057,7 +2061,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2065,7 +2069,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2073,7 +2077,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2081,7 +2085,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2089,7 +2093,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2097,7 +2101,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2105,7 +2109,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2113,7 +2117,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2121,7 +2125,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2129,7 +2133,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2137,7 +2141,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2145,7 +2149,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2153,7 +2157,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2161,7 +2165,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2169,7 +2173,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2177,7 +2181,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2185,7 +2189,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2193,7 +2197,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2201,7 +2205,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2209,7 +2213,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2217,7 +2221,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2225,7 +2229,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2233,7 +2237,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2241,7 +2245,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2249,7 +2253,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2276,25 +2280,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B12" zoomScale="83" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.7265625" style="19"/>
-    <col min="6" max="6" width="31.453125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.6328125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.7265625" style="19"/>
-    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="19"/>
+    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
+    <col min="3" max="5" width="8.69921875" style="19"/>
+    <col min="6" max="6" width="31.5" style="19" customWidth="1"/>
+    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.69921875" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.69921875" style="19"/>
+    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2302,7 +2306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="23.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2318,7 +2322,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2326,13 +2330,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="47"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2340,7 +2344,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2348,7 +2352,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2387,24 +2391,24 @@
       </c>
       <c r="M10"/>
     </row>
-    <row r="11" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49" t="s">
+    <row r="11" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
+      <c r="B11" s="57"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="58"/>
       <c r="M11"/>
     </row>
-    <row r="12" spans="1:13" ht="123.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" ht="123.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>1</v>
       </c>
@@ -2420,7 +2424,7 @@
       <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="59" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2439,7 +2443,7 @@
       <c r="L12" s="20"/>
       <c r="M12"/>
     </row>
-    <row r="13" spans="1:13" ht="119.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>2</v>
       </c>
@@ -2455,7 +2459,7 @@
       <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="45" t="s">
+      <c r="F13" s="59" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -2474,24 +2478,24 @@
       <c r="L13" s="20"/>
       <c r="M13"/>
     </row>
-    <row r="14" spans="1:13" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="49" t="s">
+    <row r="14" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="58"/>
       <c r="M14"/>
     </row>
-    <row r="15" spans="1:13" ht="107.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>3</v>
       </c>
@@ -2507,7 +2511,7 @@
       <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="45" t="s">
+      <c r="F15" s="59" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -2526,7 +2530,7 @@
       <c r="L15" s="20"/>
       <c r="M15"/>
     </row>
-    <row r="16" spans="1:13" ht="120.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="120.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>4</v>
       </c>
@@ -2542,7 +2546,7 @@
       <c r="E16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="45" t="s">
+      <c r="F16" s="59" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -2561,7 +2565,7 @@
       <c r="L16" s="20"/>
       <c r="M16"/>
     </row>
-    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>5</v>
       </c>
@@ -2577,7 +2581,7 @@
       <c r="E17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="45" t="s">
+      <c r="F17" s="59" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -2596,24 +2600,24 @@
       <c r="L17" s="20"/>
       <c r="M17"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" s="49" t="s">
+    <row r="18" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="57"/>
+      <c r="D18" s="57"/>
+      <c r="E18" s="57"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="58"/>
       <c r="M18"/>
     </row>
-    <row r="19" spans="1:13" ht="109" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>6</v>
       </c>
@@ -2629,7 +2633,7 @@
       <c r="E19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="45" t="s">
+      <c r="F19" s="59" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2648,7 +2652,7 @@
       <c r="L19" s="20"/>
       <c r="M19"/>
     </row>
-    <row r="20" spans="1:13" ht="116.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="116.55" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20">
         <v>7</v>
       </c>
@@ -2664,7 +2668,7 @@
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="45" t="s">
+      <c r="F20" s="59" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -2683,7 +2687,7 @@
       <c r="L20" s="20"/>
       <c r="M20"/>
     </row>
-    <row r="21" spans="1:13" ht="106" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="106.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20">
         <v>8</v>
       </c>
@@ -2699,7 +2703,7 @@
       <c r="E21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="45" t="s">
+      <c r="F21" s="59" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -2718,7 +2722,7 @@
       <c r="L21" s="20"/>
       <c r="M21"/>
     </row>
-    <row r="22" spans="1:13" ht="48" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="20"/>
@@ -2739,7 +2743,7 @@
       <c r="L22" s="20"/>
       <c r="M22"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="24" t="s">
         <v>46</v>
       </c>
@@ -2751,7 +2755,7 @@
       </c>
       <c r="F23" s="33"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C24" s="25"/>
       <c r="D24" s="29"/>
       <c r="E24" s="25" t="s">
@@ -2759,7 +2763,7 @@
       </c>
       <c r="F24" s="34"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C25" s="25"/>
       <c r="D25" s="29"/>
       <c r="E25" s="26" t="s">
@@ -2767,7 +2771,7 @@
       </c>
       <c r="F25" s="35"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C26" s="25"/>
       <c r="D26" s="30" t="s">
         <v>30</v>
@@ -2777,7 +2781,7 @@
       </c>
       <c r="F26" s="36"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="25"/>
       <c r="D27" s="31" t="s">
         <v>4</v>
@@ -2787,7 +2791,7 @@
       </c>
       <c r="F27" s="37"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C28" s="25" t="s">
         <v>19</v>
       </c>
@@ -2796,7 +2800,7 @@
       </c>
       <c r="F28" s="34"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C29" s="26" t="s">
         <v>20</v>
       </c>
@@ -2806,7 +2810,7 @@
       <c r="E29" s="27"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="G30" s="19" t="s">
         <v>38</v>
       </c>
@@ -2827,11 +2831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2848,178 +2850,178 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.7265625" style="14"/>
+    <col min="1" max="16384" width="8.69921875" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="51" t="s">
+    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C5" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-    </row>
-    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="49"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="53"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="53"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="53"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="53"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="53"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="53"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="53"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="53"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="53"/>
+    </row>
+    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="55"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="55"/>
+      <c r="O15" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="527" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C8B94EC-411E-4E8F-B327-818827B0E977}"/>
+  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E80FDB-B1BC-42ED-8A75-114706253F38}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="19" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="20" r:id="rId3"/>
-    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId4"/>
+    <sheet name="aes_test_reset_enc" sheetId="20" r:id="rId3"/>
+    <sheet name="aes_test_reset_dec" sheetId="21" r:id="rId4"/>
+    <sheet name="aes_test_definetion_enc" sheetId="22" r:id="rId5"/>
+    <sheet name="aes_test_definetion_dec" sheetId="23" r:id="rId6"/>
+    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId7"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="Assertion_Coverage">#REF!</definedName>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
   <si>
     <t>HISTORY</t>
   </si>
@@ -908,12 +911,279 @@
       <t>: data_out =128'h 0, finish = 1</t>
     </r>
   </si>
+  <si>
+    <t>Test Case Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 0, signal rst_n = 0, clk = 1, finished = 1, T_clk = 10ns.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 18ns, input encrypted data and key, signal rst_n = 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, encryption starts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, encryption stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 210ns, signal rst_n = 1, enable encryption, encryption continues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 230ns, new encrypted data and key are input, encryption performs new data, old data is overwritten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, decryption starts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, decryption stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 230ns, new decrypted data and key are input, decryption performs new data, old data is overwritten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data encryption, give encryption result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data decryption, give decryption result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 18ns, input decrypted data and key, signal rst_n = 1.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 320ns, give encoding result: </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 18ns, signal rst_n = 1, input encrypted data and key:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> data_input[127:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 128'h21b5b8ccceb0d577b29554efd573becf;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>=128'h 9faaa5bb6d2497441d789102b8f1e14d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data_output[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 128'hba1048bb8f0f7b01f2ae598a6fcc7994</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 210ns, signal rst_n = 1, enable decryption, decryption continues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 18ns, signal rst_n = 1, input decrypted data and key:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data_output[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 128'hde1d2118aad0761d4805c2d3bb799ac9</t>
+    </r>
+  </si>
+  <si>
+    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data encryption, give encryption result.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data_output[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 128'h69c4e0d86a7b0430d8cdb78070b4c55a</t>
+    </r>
+  </si>
+  <si>
+    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data decryption, give decryption result.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">data_output[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>= 128'h 00112233445566778899aabbccddeeff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> data_input[127:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 128'h69c4e0d86a7b0430d8cdb78070b4c55a;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> key[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>=128'h13111d7fe3944a17f307a78b4d2b30c5</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>data_input[127:0]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> = 128'h00112233445566778899aabbccddeeff; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">key[127:0] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>=128'h000102030405060708090a0b0c0d0e0f</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1022,8 +1292,29 @@
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1054,8 +1345,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1346,11 +1661,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1426,6 +1754,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1433,6 +1764,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1462,15 +1799,53 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1553,6 +1928,202 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647699</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>147406</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2761ECDB-040D-2383-6ACC-6D6F6B88FECE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647699" y="3497580"/>
+          <a:ext cx="10594427" cy="2133600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>662939</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>212686</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F973E77-B451-FD9A-2B0F-44A242FEB006}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="662939" y="3535680"/>
+          <a:ext cx="10575887" cy="2202180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>7619</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>483064</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43C15962-7A6B-A7B5-FF85-3E65A8EBD45B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678179" y="2301240"/>
+          <a:ext cx="9893765" cy="2225040"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>632070</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="A screenshot of a computer&#10;&#10;AI-generated content may be incorrect.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19EED654-AEE9-258B-1B6A-26DCA9D23F32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2682240"/>
+          <a:ext cx="10629510" cy="1996440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1577,10 +2148,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1851,7 +2418,7 @@
   </sheetPr>
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
@@ -1866,14 +2433,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="15"/>
@@ -2280,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:M30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2331,10 +2898,10 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="47"/>
+      <c r="C6" s="48"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -2392,20 +2959,20 @@
       <c r="M10"/>
     </row>
     <row r="11" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="49" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="58"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="50"/>
       <c r="M11"/>
     </row>
     <row r="12" spans="1:13" ht="123.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2424,7 +2991,7 @@
       <c r="E12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="F12" s="59" t="s">
+      <c r="F12" s="45" t="s">
         <v>81</v>
       </c>
       <c r="G12" s="20" t="s">
@@ -2459,7 +3026,7 @@
       <c r="E13" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="59" t="s">
+      <c r="F13" s="45" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="20" t="s">
@@ -2479,20 +3046,20 @@
       <c r="M13"/>
     </row>
     <row r="14" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="58"/>
+      <c r="B14" s="49"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="50"/>
       <c r="M14"/>
     </row>
     <row r="15" spans="1:13" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
@@ -2511,7 +3078,7 @@
       <c r="E15" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="59" t="s">
+      <c r="F15" s="45" t="s">
         <v>76</v>
       </c>
       <c r="G15" s="20" t="s">
@@ -2546,7 +3113,7 @@
       <c r="E16" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="59" t="s">
+      <c r="F16" s="45" t="s">
         <v>75</v>
       </c>
       <c r="G16" s="20" t="s">
@@ -2581,7 +3148,7 @@
       <c r="E17" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="45" t="s">
         <v>78</v>
       </c>
       <c r="G17" s="20" t="s">
@@ -2601,20 +3168,20 @@
       <c r="M17"/>
     </row>
     <row r="18" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="57"/>
-      <c r="C18" s="57"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="58"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="50"/>
       <c r="M18"/>
     </row>
     <row r="19" spans="1:13" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
@@ -2633,7 +3200,7 @@
       <c r="E19" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="F19" s="59" t="s">
+      <c r="F19" s="45" t="s">
         <v>74</v>
       </c>
       <c r="G19" s="20" t="s">
@@ -2668,7 +3235,7 @@
       <c r="E20" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="F20" s="59" t="s">
+      <c r="F20" s="45" t="s">
         <v>73</v>
       </c>
       <c r="G20" s="20" t="s">
@@ -2703,7 +3270,7 @@
       <c r="E21" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F21" s="59" t="s">
+      <c r="F21" s="45" t="s">
         <v>77</v>
       </c>
       <c r="G21" s="20" t="s">
@@ -2829,17 +3396,810 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
-  <dimension ref="A1"/>
+  <dimension ref="B7:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="10.296875" customWidth="1"/>
+    <col min="13" max="13" width="11.19921875" customWidth="1"/>
+    <col min="14" max="14" width="9.69921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="60"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="67"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="60"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="67"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="60"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B11" s="67"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B12" s="67"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B13" s="67"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B14" s="67"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="79" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B15" s="67"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="79" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="60"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B16" s="67"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="60"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B17" s="68"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="80" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="61"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="D7:N7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
+  <dimension ref="B7:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="10.09765625" customWidth="1"/>
+    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="76" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="60"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="67"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="60"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="67"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="78" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="60"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B11" s="67"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="60"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B12" s="67"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="60"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B13" s="67"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="64"/>
+      <c r="M13" s="64"/>
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B14" s="67"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="60"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B15" s="67"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="60"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B16" s="67"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="64"/>
+      <c r="N16" s="60"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B17" s="68"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="80" t="s">
+        <v>103</v>
+      </c>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
+      <c r="L17" s="65"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="61"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="B8:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
+  <dimension ref="B7:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.59765625" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="84"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="67"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="84"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="67"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="85" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="84"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B11" s="67"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="84"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B12" s="67"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="84"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B13" s="68"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="80" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="86"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B14" s="74"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="73"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B15" s="74"/>
+      <c r="C15" s="74"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="73"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="73"/>
+      <c r="K15" s="73"/>
+      <c r="L15" s="73"/>
+      <c r="M15" s="73"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B16" s="74"/>
+      <c r="C16" s="74"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
+      <c r="L16" s="73"/>
+      <c r="M16" s="73"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
+      <c r="L17" s="73"/>
+      <c r="M17" s="73"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACDF1C6-D7EB-4005-9D39-B97546A20218}">
+  <dimension ref="B7:N13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="14" max="14" width="11.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="70" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="71"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B8" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="82"/>
+      <c r="D8" s="78" t="s">
+        <v>84</v>
+      </c>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="G8" s="64"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
+      <c r="J8" s="64"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
+      <c r="M8" s="64"/>
+      <c r="N8" s="84"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B9" s="67"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="84"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B10" s="67"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="85" t="s">
+        <v>108</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="84"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B11" s="67"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="78" t="s">
+        <v>91</v>
+      </c>
+      <c r="E11" s="64"/>
+      <c r="F11" s="64"/>
+      <c r="G11" s="64"/>
+      <c r="H11" s="64"/>
+      <c r="I11" s="64"/>
+      <c r="J11" s="64"/>
+      <c r="K11" s="64"/>
+      <c r="L11" s="64"/>
+      <c r="M11" s="64"/>
+      <c r="N11" s="84"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B12" s="67"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="78" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64"/>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="64"/>
+      <c r="M12" s="64"/>
+      <c r="N12" s="84"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="B13" s="68"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="B8:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -2857,171 +4217,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="49"/>
-      <c r="O5" s="50"/>
+      <c r="D5" s="52"/>
+      <c r="E5" s="52"/>
+      <c r="F5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="52"/>
+      <c r="N5" s="52"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="52"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="53"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="56"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="53"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="53"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="53"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="53"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="51"/>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="51"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="53"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="51"/>
-      <c r="D13" s="52"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="52"/>
-      <c r="H13" s="52"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="53"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="51"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="53"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
+      <c r="K14" s="55"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
     </row>
     <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="54"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="55"/>
-      <c r="M15" s="55"/>
-      <c r="N15" s="55"/>
-      <c r="O15" s="56"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="58"/>
+      <c r="J15" s="58"/>
+      <c r="K15" s="58"/>
+      <c r="L15" s="58"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="749" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1E80FDB-B1BC-42ED-8A75-114706253F38}"/>
+  <xr:revisionPtr revIDLastSave="770" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CFCC1C-83A8-47E2-BCBD-BB885449921B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="4840" windowWidth="14400" windowHeight="4670" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
   <si>
     <t>HISTORY</t>
   </si>
@@ -1187,7 +1187,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1223,7 +1223,7 @@
     <font>
       <sz val="20"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1267,7 +1267,7 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1296,7 +1296,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1678,7 +1678,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1757,6 +1757,23 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1766,11 +1783,32 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1799,53 +1837,8 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2422,27 +2415,27 @@
       <selection activeCell="A8" sqref="A8:E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.69921875" customWidth="1"/>
-    <col min="3" max="3" width="48.296875" customWidth="1"/>
-    <col min="4" max="4" width="9.8984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.3984375" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
+    <col min="3" max="3" width="48.26953125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.8" x14ac:dyDescent="0.7">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-    </row>
-    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+    </row>
+    <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
       <c r="B2" s="15"/>
       <c r="C2" s="15"/>
@@ -2450,7 +2443,7 @@
       <c r="E2" s="15"/>
       <c r="F2" s="15"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A3" s="9" t="s">
         <v>1</v>
       </c>
@@ -2460,7 +2453,7 @@
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
@@ -2470,7 +2463,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
@@ -2480,7 +2473,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2488,7 +2481,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -2508,7 +2501,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A8" s="6"/>
       <c r="B8" s="1"/>
       <c r="C8" s="7"/>
@@ -2516,7 +2509,7 @@
       <c r="E8" s="6"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="2"/>
@@ -2524,7 +2517,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="2"/>
@@ -2532,7 +2525,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A11" s="6"/>
       <c r="B11" s="8"/>
       <c r="C11" s="2"/>
@@ -2540,7 +2533,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A12" s="6"/>
       <c r="B12" s="8"/>
       <c r="C12" s="2"/>
@@ -2548,7 +2541,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="2"/>
@@ -2556,7 +2549,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="2"/>
@@ -2564,7 +2557,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A15" s="6"/>
       <c r="B15" s="8"/>
       <c r="C15" s="2"/>
@@ -2572,7 +2565,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="2"/>
@@ -2580,7 +2573,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="2"/>
@@ -2588,7 +2581,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A18" s="6"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2"/>
@@ -2596,7 +2589,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -2604,7 +2597,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -2612,7 +2605,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2620,7 +2613,7 @@
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -2628,7 +2621,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -2636,7 +2629,7 @@
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -2644,7 +2637,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -2652,7 +2645,7 @@
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -2660,7 +2653,7 @@
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -2668,7 +2661,7 @@
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -2676,7 +2669,7 @@
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -2684,7 +2677,7 @@
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -2692,7 +2685,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -2700,7 +2693,7 @@
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -2708,7 +2701,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -2716,7 +2709,7 @@
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -2724,7 +2717,7 @@
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
-    <row r="35" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -2732,7 +2725,7 @@
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
-    <row r="36" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -2740,7 +2733,7 @@
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
-    <row r="37" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -2748,7 +2741,7 @@
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
-    <row r="38" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -2756,7 +2749,7 @@
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
     </row>
-    <row r="39" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -2764,7 +2757,7 @@
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
     </row>
-    <row r="40" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -2772,7 +2765,7 @@
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
     </row>
-    <row r="41" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -2780,7 +2773,7 @@
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
     </row>
-    <row r="42" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -2788,7 +2781,7 @@
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
     </row>
-    <row r="43" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -2796,7 +2789,7 @@
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -2804,7 +2797,7 @@
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -2812,7 +2805,7 @@
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -2820,7 +2813,7 @@
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="1:6" ht="15.6" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:6" ht="15.5" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -2845,27 +2838,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
-  <dimension ref="A2:M30"/>
+  <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="94" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.8984375" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.3984375" style="19" customWidth="1"/>
-    <col min="3" max="5" width="8.69921875" style="19"/>
-    <col min="6" max="6" width="31.5" style="19" customWidth="1"/>
-    <col min="7" max="7" width="29.59765625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="36.69921875" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" style="19" customWidth="1"/>
-    <col min="10" max="10" width="8.69921875" style="19"/>
-    <col min="11" max="11" width="30.59765625" style="19" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="19"/>
+    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="29.90625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="26.1796875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="9" style="19" customWidth="1"/>
+    <col min="6" max="7" width="9.1796875" style="19" customWidth="1"/>
+    <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="19"/>
+    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
@@ -2873,7 +2867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="22.8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="23.5" x14ac:dyDescent="0.35">
       <c r="B3" s="40" t="s">
         <v>12</v>
       </c>
@@ -2881,7 +2875,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="21" t="s">
         <v>14</v>
       </c>
@@ -2889,7 +2883,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B5" s="20" t="s">
         <v>16</v>
       </c>
@@ -2897,13 +2891,13 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="47" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="48"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" s="63"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
@@ -2911,7 +2905,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
         <v>20</v>
       </c>
@@ -2919,7 +2913,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="11.5" x14ac:dyDescent="0.3">
       <c r="A10" s="21" t="s">
         <v>4</v>
       </c>
@@ -2927,19 +2921,19 @@
         <v>21</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="F10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="G10" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="F10" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>26</v>
@@ -2956,46 +2950,44 @@
       <c r="L10" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="M10"/>
-    </row>
-    <row r="11" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="49" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="50"/>
-      <c r="M11"/>
-    </row>
-    <row r="12" spans="1:13" ht="123.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="82"/>
+      <c r="I11" s="82"/>
+      <c r="J11" s="82"/>
+      <c r="K11" s="82"/>
+      <c r="L11" s="83"/>
+    </row>
+    <row r="12" spans="1:12" ht="123.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="F12" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="G12" s="20" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" s="45" t="s">
-        <v>81</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="H12" s="42" t="s">
         <v>71</v>
@@ -3008,29 +3000,28 @@
       </c>
       <c r="K12" s="44"/>
       <c r="L12" s="20"/>
-      <c r="M12"/>
-    </row>
-    <row r="13" spans="1:13" ht="119.55" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="19" t="s">
+      <c r="G13" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="F13" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="G13" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="H13" s="42" t="s">
         <v>70</v>
@@ -3043,46 +3034,44 @@
       </c>
       <c r="K13" s="44"/>
       <c r="L13" s="20"/>
-      <c r="M13"/>
-    </row>
-    <row r="14" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="49" t="s">
+    </row>
+    <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="50"/>
-      <c r="M14"/>
-    </row>
-    <row r="15" spans="1:13" ht="107.55" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="82"/>
+      <c r="K14" s="82"/>
+      <c r="L14" s="83"/>
+    </row>
+    <row r="15" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="F15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="19" t="s">
+      <c r="G15" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="F15" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>58</v>
@@ -3095,29 +3084,28 @@
       </c>
       <c r="K15" s="44"/>
       <c r="L15" s="20"/>
-      <c r="M15"/>
-    </row>
-    <row r="16" spans="1:13" ht="120.45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:12" ht="120.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="F16" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="G16" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="F16" s="45" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>54</v>
@@ -3130,29 +3118,28 @@
       </c>
       <c r="K16" s="44"/>
       <c r="L16" s="20"/>
-      <c r="M16"/>
-    </row>
-    <row r="17" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="F17" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="G17" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="F17" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="H17" s="42" t="s">
         <v>56</v>
@@ -3165,46 +3152,44 @@
       </c>
       <c r="K17" s="44"/>
       <c r="L17" s="20"/>
-      <c r="M17"/>
-    </row>
-    <row r="18" spans="1:13" ht="14.55" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="49" t="s">
+    </row>
+    <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="50"/>
-      <c r="M18"/>
-    </row>
-    <row r="19" spans="1:13" ht="109.05" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="82"/>
+      <c r="C18" s="82"/>
+      <c r="D18" s="82"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="82"/>
+      <c r="H18" s="82"/>
+      <c r="I18" s="82"/>
+      <c r="J18" s="82"/>
+      <c r="K18" s="82"/>
+      <c r="L18" s="83"/>
+    </row>
+    <row r="19" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="F19" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="G19" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="F19" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>32</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>59</v>
@@ -3217,29 +3202,28 @@
       </c>
       <c r="K19" s="44"/>
       <c r="L19" s="20"/>
-      <c r="M19"/>
-    </row>
-    <row r="20" spans="1:13" ht="116.55" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:12" ht="116.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="F20" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="G20" s="20" t="s">
         <v>37</v>
-      </c>
-      <c r="F20" s="45" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>55</v>
@@ -3252,29 +3236,28 @@
       </c>
       <c r="K20" s="44"/>
       <c r="L20" s="20"/>
-      <c r="M20"/>
-    </row>
-    <row r="21" spans="1:13" ht="106.05" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="F21" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="G21" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="F21" s="45" t="s">
-        <v>77</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>38</v>
       </c>
       <c r="H21" s="42" t="s">
         <v>57</v>
@@ -3287,20 +3270,19 @@
       </c>
       <c r="K21" s="44"/>
       <c r="L21" s="20"/>
-      <c r="M21"/>
-    </row>
-    <row r="22" spans="1:13" ht="46.8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:12" ht="128" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
+      <c r="C22" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="38" t="s">
+        <v>44</v>
+      </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>44</v>
-      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
       <c r="H22" s="38" t="s">
         <v>45</v>
       </c>
@@ -3308,86 +3290,77 @@
       <c r="J22" s="20"/>
       <c r="K22" s="20"/>
       <c r="L22" s="20"/>
-      <c r="M22"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C23" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>46</v>
-      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="F23" s="33"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C24" s="25"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="25" t="s">
+      <c r="F23" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="33"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E24" s="25"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="25" t="s">
         <v>37</v>
       </c>
-      <c r="F24" s="34"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C25" s="25"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="26" t="s">
+      <c r="H24" s="34"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E25" s="25"/>
+      <c r="F25" s="29"/>
+      <c r="G25" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F25" s="35"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C26" s="25"/>
-      <c r="D26" s="30" t="s">
+      <c r="H25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E26" s="25"/>
+      <c r="F26" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="23" t="s">
+      <c r="G26" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="F26" s="36"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C27" s="25"/>
-      <c r="D27" s="31" t="s">
+      <c r="H26" s="36"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E27" s="25"/>
+      <c r="F27" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="32" t="s">
+      <c r="G27" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="37"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C28" s="25" t="s">
+      <c r="H27" s="37"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E28" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="F28" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F28" s="34"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C29" s="26" t="s">
+      <c r="H28" s="34"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="E29" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="F29" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="35"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="G30" s="19" t="s">
-        <v>38</v>
-      </c>
+      <c r="G29" s="27"/>
+      <c r="H29" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="1">
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A18:L18"/>
-    <mergeCell ref="A14:L14"/>
-    <mergeCell ref="A11:L11"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3396,233 +3369,209 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
-  <dimension ref="B7:N19"/>
+  <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.296875" customWidth="1"/>
-    <col min="13" max="13" width="11.19921875" customWidth="1"/>
-    <col min="14" max="14" width="9.69921875" customWidth="1"/>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="71"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="60"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="60"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="79" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B14" s="67"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="79" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="55" t="s">
         <v>88</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B15" s="67"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="79" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="55" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="67"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="79" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="60"/>
-    </row>
-    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="68"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="80" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="61"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3638,206 +3587,206 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.09765625" customWidth="1"/>
-    <col min="14" max="14" width="11.3984375" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="76" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="81"/>
+      <c r="C7" s="57"/>
       <c r="D7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="71"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="60"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="55" t="s">
         <v>102</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="60"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="78" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="60"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="60"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="79" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="60"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B13" s="67"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="79" t="s">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="66"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
-      <c r="I13" s="64"/>
-      <c r="J13" s="64"/>
-      <c r="K13" s="64"/>
-      <c r="L13" s="64"/>
-      <c r="M13" s="64"/>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B14" s="67"/>
-      <c r="C14" s="77"/>
-      <c r="D14" s="79" t="s">
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="66"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="64"/>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-      <c r="I14" s="64"/>
-      <c r="J14" s="64"/>
-      <c r="K14" s="64"/>
-      <c r="L14" s="64"/>
-      <c r="M14" s="64"/>
-      <c r="N14" s="60"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B15" s="67"/>
-      <c r="C15" s="77"/>
-      <c r="D15" s="79" t="s">
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="66"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="64"/>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
-      <c r="I15" s="64"/>
-      <c r="J15" s="64"/>
-      <c r="K15" s="64"/>
-      <c r="L15" s="64"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="60"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="67"/>
-      <c r="C16" s="77"/>
-      <c r="D16" s="79" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="64"/>
-      <c r="G16" s="64"/>
-      <c r="H16" s="64"/>
-      <c r="I16" s="64"/>
-      <c r="J16" s="64"/>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
-      <c r="M16" s="64"/>
-      <c r="N16" s="60"/>
-    </row>
-    <row r="17" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B17" s="68"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="80" t="s">
+      <c r="C17" s="69"/>
+      <c r="D17" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="E17" s="65"/>
-      <c r="F17" s="65"/>
-      <c r="G17" s="65"/>
-      <c r="H17" s="65"/>
-      <c r="I17" s="65"/>
-      <c r="J17" s="65"/>
-      <c r="K17" s="65"/>
-      <c r="L17" s="65"/>
-      <c r="M17" s="65"/>
-      <c r="N17" s="61"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3853,194 +3802,194 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.59765625" customWidth="1"/>
-    <col min="14" max="14" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="71"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="84"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="84"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="84"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="84"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="84"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="68"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="80" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="56" t="s">
         <v>105</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="86"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B14" s="74"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="73"/>
-      <c r="I14" s="73"/>
-      <c r="J14" s="73"/>
-      <c r="K14" s="73"/>
-      <c r="L14" s="73"/>
-      <c r="M14" s="73"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B15" s="74"/>
-      <c r="C15" s="74"/>
-      <c r="D15" s="72"/>
-      <c r="E15" s="73"/>
-      <c r="F15" s="73"/>
-      <c r="G15" s="73"/>
-      <c r="H15" s="73"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="73"/>
-      <c r="K15" s="73"/>
-      <c r="L15" s="73"/>
-      <c r="M15" s="73"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73"/>
-      <c r="F16" s="73"/>
-      <c r="G16" s="73"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="73"/>
-      <c r="J16" s="73"/>
-      <c r="K16" s="73"/>
-      <c r="L16" s="73"/>
-      <c r="M16" s="73"/>
-    </row>
-    <row r="17" spans="2:13" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="73"/>
-      <c r="H17" s="73"/>
-      <c r="I17" s="73"/>
-      <c r="J17" s="73"/>
-      <c r="K17" s="73"/>
-      <c r="L17" s="73"/>
-      <c r="M17" s="73"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4060,134 +4009,134 @@
       <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="14" max="14" width="11.296875" customWidth="1"/>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="83"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="71"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B8" s="66" t="s">
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="72"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="64" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="78" t="s">
+      <c r="C8" s="65"/>
+      <c r="D8" s="55" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="64"/>
-      <c r="F8" s="64"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="84"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B9" s="67"/>
-      <c r="C9" s="77"/>
-      <c r="D9" s="78" t="s">
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="66"/>
+      <c r="C9" s="67"/>
+      <c r="D9" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="84"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B10" s="67"/>
-      <c r="C10" s="77"/>
-      <c r="D10" s="85" t="s">
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="66"/>
+      <c r="C10" s="67"/>
+      <c r="D10" s="55" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="84"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B11" s="67"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="78" t="s">
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="55" t="s">
         <v>91</v>
       </c>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-      <c r="K11" s="64"/>
-      <c r="L11" s="64"/>
-      <c r="M11" s="64"/>
-      <c r="N11" s="84"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
-      <c r="B12" s="67"/>
-      <c r="C12" s="77"/>
-      <c r="D12" s="78" t="s">
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="66"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="55" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="64"/>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="64"/>
-      <c r="K12" s="64"/>
-      <c r="L12" s="64"/>
-      <c r="M12" s="64"/>
-      <c r="N12" s="84"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.8" x14ac:dyDescent="0.4">
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B13" s="68"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="80" t="s">
+      <c r="C13" s="69"/>
+      <c r="D13" s="56" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-      <c r="K13" s="65"/>
-      <c r="L13" s="65"/>
-      <c r="M13" s="65"/>
-      <c r="N13" s="86"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4210,178 +4159,178 @@
       <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="8.69921875" style="14"/>
+    <col min="1" max="16384" width="8.7265625" style="14"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C5" s="51" t="s">
+    <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="5" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C5" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="53"/>
-    </row>
-    <row r="6" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C6" s="54"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="55"/>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="56"/>
-    </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C7" s="54"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="56"/>
-    </row>
-    <row r="8" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C8" s="54"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
-      <c r="K8" s="55"/>
-      <c r="L8" s="55"/>
-      <c r="M8" s="55"/>
-      <c r="N8" s="55"/>
-      <c r="O8" s="56"/>
-    </row>
-    <row r="9" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C9" s="54"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="56"/>
-    </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C10" s="54"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="55"/>
-      <c r="O10" s="56"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C11" s="54"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
-      <c r="K11" s="55"/>
-      <c r="L11" s="55"/>
-      <c r="M11" s="55"/>
-      <c r="N11" s="55"/>
-      <c r="O11" s="56"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C12" s="54"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="56"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C13" s="54"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
-      <c r="K13" s="55"/>
-      <c r="L13" s="55"/>
-      <c r="M13" s="55"/>
-      <c r="N13" s="55"/>
-      <c r="O13" s="56"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
-      <c r="C14" s="54"/>
-      <c r="D14" s="55"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
-      <c r="K14" s="55"/>
-      <c r="L14" s="55"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="55"/>
-      <c r="O14" s="56"/>
-    </row>
-    <row r="15" spans="3:15" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="57"/>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-      <c r="F15" s="58"/>
-      <c r="G15" s="58"/>
-      <c r="H15" s="58"/>
-      <c r="I15" s="58"/>
-      <c r="J15" s="58"/>
-      <c r="K15" s="58"/>
-      <c r="L15" s="58"/>
-      <c r="M15" s="58"/>
-      <c r="N15" s="58"/>
-      <c r="O15" s="59"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="75"/>
+    </row>
+    <row r="6" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="78"/>
+    </row>
+    <row r="7" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C7" s="76"/>
+      <c r="D7" s="77"/>
+      <c r="E7" s="77"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="77"/>
+      <c r="H7" s="77"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="77"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="77"/>
+      <c r="M7" s="77"/>
+      <c r="N7" s="77"/>
+      <c r="O7" s="78"/>
+    </row>
+    <row r="8" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="77"/>
+      <c r="K8" s="77"/>
+      <c r="L8" s="77"/>
+      <c r="M8" s="77"/>
+      <c r="N8" s="77"/>
+      <c r="O8" s="78"/>
+    </row>
+    <row r="9" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C9" s="76"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="77"/>
+      <c r="H9" s="77"/>
+      <c r="I9" s="77"/>
+      <c r="J9" s="77"/>
+      <c r="K9" s="77"/>
+      <c r="L9" s="77"/>
+      <c r="M9" s="77"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="78"/>
+    </row>
+    <row r="10" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C10" s="76"/>
+      <c r="D10" s="77"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="77"/>
+      <c r="J10" s="77"/>
+      <c r="K10" s="77"/>
+      <c r="L10" s="77"/>
+      <c r="M10" s="77"/>
+      <c r="N10" s="77"/>
+      <c r="O10" s="78"/>
+    </row>
+    <row r="11" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C11" s="76"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="77"/>
+      <c r="G11" s="77"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="77"/>
+      <c r="J11" s="77"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="77"/>
+      <c r="M11" s="77"/>
+      <c r="N11" s="77"/>
+      <c r="O11" s="78"/>
+    </row>
+    <row r="12" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="77"/>
+      <c r="G12" s="77"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="77"/>
+      <c r="J12" s="77"/>
+      <c r="K12" s="77"/>
+      <c r="L12" s="77"/>
+      <c r="M12" s="77"/>
+      <c r="N12" s="77"/>
+      <c r="O12" s="78"/>
+    </row>
+    <row r="13" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C13" s="76"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="77"/>
+      <c r="K13" s="77"/>
+      <c r="L13" s="77"/>
+      <c r="M13" s="77"/>
+      <c r="N13" s="77"/>
+      <c r="O13" s="78"/>
+    </row>
+    <row r="14" spans="3:15" x14ac:dyDescent="0.35">
+      <c r="C14" s="76"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="77"/>
+      <c r="J14" s="77"/>
+      <c r="K14" s="77"/>
+      <c r="L14" s="77"/>
+      <c r="M14" s="77"/>
+      <c r="N14" s="77"/>
+      <c r="O14" s="78"/>
+    </row>
+    <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="79"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="80"/>
+      <c r="J15" s="80"/>
+      <c r="K15" s="80"/>
+      <c r="L15" s="80"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="80"/>
+      <c r="O15" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="770" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{42CFCC1C-83A8-47E2-BCBD-BB885449921B}"/>
+  <xr:revisionPtr revIDLastSave="793" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5256E95A-4D96-4FDB-9D60-695537768BBC}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="4800" yWindow="4840" windowWidth="14400" windowHeight="4670" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
   <si>
     <t>HISTORY</t>
   </si>
@@ -329,9 +329,6 @@
 - key = 13111d7fe3944a17f307a78b4d2b30c5</t>
   </si>
   <si>
-    <t xml:space="preserve">AES_SPECIAL_DATA_DECRYPTION </t>
-  </si>
-  <si>
     <t>aes_test_special_data_dec</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
 - aes_multi_seq
 - set reset time
 - repeat(10)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_SPECIAL_DATA_ENCRYPTION </t>
   </si>
   <si>
     <r>
@@ -1177,6 +1171,15 @@
       </rPr>
       <t>=128'h000102030405060708090a0b0c0d0e0f</t>
     </r>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_BOUNDARY_DATA_ENCRYPTION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_BOUNDARY_DATA_DECRYPTION </t>
   </si>
 </sst>
 </file>
@@ -2141,6 +2144,10 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2840,8 +2847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="94" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2849,7 +2856,7 @@
     <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
     <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
     <col min="3" max="3" width="29.90625" style="19" customWidth="1"/>
-    <col min="4" max="4" width="26.1796875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" style="19" customWidth="1"/>
     <col min="5" max="5" width="9" style="19" customWidth="1"/>
     <col min="6" max="7" width="9.1796875" style="19" customWidth="1"/>
     <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
@@ -2902,7 +2909,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -2910,7 +2917,7 @@
         <v>20</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.5" x14ac:dyDescent="0.3">
@@ -2945,7 +2952,7 @@
         <v>28</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>9</v>
@@ -2975,7 +2982,7 @@
         <v>52</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>32</v>
@@ -2990,7 +2997,7 @@
         <v>31</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I12" s="20" t="s">
         <v>34</v>
@@ -3009,7 +3016,7 @@
         <v>53</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D13" s="20" t="s">
         <v>32</v>
@@ -3024,7 +3031,7 @@
         <v>31</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I13" s="20" t="s">
         <v>35</v>
@@ -3056,10 +3063,10 @@
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>32</v>
@@ -3077,12 +3084,14 @@
         <v>58</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="44"/>
+      <c r="K15" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L15" s="20"/>
     </row>
     <row r="16" spans="1:12" ht="120.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3090,10 +3099,10 @@
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D16" s="20" t="s">
         <v>38</v>
@@ -3116,7 +3125,9 @@
       <c r="J16" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="44"/>
+      <c r="K16" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L16" s="20"/>
     </row>
     <row r="17" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.3">
@@ -3124,10 +3135,10 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D17" s="20" t="s">
         <v>38</v>
@@ -3145,12 +3156,14 @@
         <v>56</v>
       </c>
       <c r="I17" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J17" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="44"/>
+      <c r="K17" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3174,10 +3187,10 @@
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C19" s="45" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D19" s="20" t="s">
         <v>32</v>
@@ -3195,12 +3208,14 @@
         <v>59</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="44"/>
+      <c r="K19" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L19" s="20"/>
     </row>
     <row r="20" spans="1:12" ht="116.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3208,10 +3223,10 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>38</v>
@@ -3234,7 +3249,9 @@
       <c r="J20" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K20" s="44"/>
+      <c r="K20" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L20" s="20"/>
     </row>
     <row r="21" spans="1:12" ht="106" customHeight="1" x14ac:dyDescent="0.3">
@@ -3242,10 +3259,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C21" s="45" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>38</v>
@@ -3263,15 +3280,17 @@
         <v>57</v>
       </c>
       <c r="I21" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J21" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K21" s="44"/>
+      <c r="K21" s="44" t="s">
+        <v>108</v>
+      </c>
       <c r="L21" s="20"/>
     </row>
-    <row r="22" spans="1:12" ht="128" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.3">
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="38" t="s">
@@ -3384,11 +3403,11 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
@@ -3407,7 +3426,7 @@
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3424,7 +3443,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3441,7 +3460,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3458,7 +3477,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3475,7 +3494,7 @@
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="55" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3492,7 +3511,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="55" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3509,7 +3528,7 @@
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="55" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -3526,7 +3545,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -3543,7 +3562,7 @@
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
@@ -3560,7 +3579,7 @@
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
       <c r="D17" s="56" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3587,7 +3606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3599,11 +3618,11 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="57"/>
       <c r="D7" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
@@ -3622,7 +3641,7 @@
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3639,7 +3658,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3656,7 +3675,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3673,7 +3692,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3690,7 +3709,7 @@
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="55" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3707,7 +3726,7 @@
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
       <c r="D13" s="55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3724,7 +3743,7 @@
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
       <c r="D14" s="55" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -3741,7 +3760,7 @@
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
       <c r="D15" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -3758,7 +3777,7 @@
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
       <c r="D16" s="55" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E16" s="49"/>
       <c r="F16" s="49"/>
@@ -3775,7 +3794,7 @@
       <c r="B17" s="68"/>
       <c r="C17" s="69"/>
       <c r="D17" s="56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3802,7 +3821,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
@@ -3814,11 +3833,11 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
@@ -3833,11 +3852,11 @@
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B8" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3854,7 +3873,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3871,7 +3890,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3888,7 +3907,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3905,7 +3924,7 @@
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="55" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3922,7 +3941,7 @@
       <c r="B13" s="68"/>
       <c r="C13" s="69"/>
       <c r="D13" s="56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -4017,11 +4036,11 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C7" s="58"/>
       <c r="D7" s="70" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E7" s="71"/>
       <c r="F7" s="71"/>
@@ -4036,11 +4055,11 @@
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
       <c r="B8" s="64" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C8" s="65"/>
       <c r="D8" s="55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -4057,7 +4076,7 @@
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
       <c r="D9" s="55" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -4074,7 +4093,7 @@
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
       <c r="D10" s="55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -4091,7 +4110,7 @@
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
       <c r="D11" s="55" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -4108,7 +4127,7 @@
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
       <c r="D12" s="55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -4125,7 +4144,7 @@
       <c r="B13" s="68"/>
       <c r="C13" s="69"/>
       <c r="D13" s="56" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>

--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,18 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="793" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5256E95A-4D96-4FDB-9D60-695537768BBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307BDF11-CAF0-4E19-BEB0-4FA9ADCEBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
     <sheet name="Test Plan" sheetId="19" r:id="rId2"/>
-    <sheet name="aes_test_reset_enc" sheetId="20" r:id="rId3"/>
-    <sheet name="aes_test_reset_dec" sheetId="21" r:id="rId4"/>
-    <sheet name="aes_test_definetion_enc" sheetId="22" r:id="rId5"/>
-    <sheet name="aes_test_definetion_dec" sheetId="23" r:id="rId6"/>
-    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId7"/>
+    <sheet name="-&gt;Appendix" sheetId="17" r:id="rId3"/>
+    <sheet name="aes_test_reset_enc" sheetId="20" r:id="rId4"/>
+    <sheet name="aes_test_reset_dec" sheetId="21" r:id="rId5"/>
+    <sheet name="aes_test_definetion_enc" sheetId="22" r:id="rId6"/>
+    <sheet name="aes_test_definetion_dec" sheetId="23" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
   <si>
     <t>HISTORY</t>
   </si>
@@ -1186,7 +1186,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,6 +1316,14 @@
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1678,10 +1686,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1777,6 +1786,8 @@
     <xf numFmtId="0" fontId="15" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1840,10 +1851,12 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2144,10 +2157,6 @@
     </sheetDataSet>
   </externalBook>
 </externalLink>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2433,14 +2442,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
@@ -2847,8 +2856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView showGridLines="0" topLeftCell="C15" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2899,10 +2908,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="63"/>
+      <c r="C6" s="65"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
@@ -2959,20 +2968,20 @@
       </c>
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="82"/>
-      <c r="J11" s="82"/>
-      <c r="K11" s="82"/>
-      <c r="L11" s="83"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
     </row>
     <row r="12" spans="1:12" ht="123.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -3005,7 +3014,10 @@
       <c r="J12" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="44"/>
+      <c r="K12" s="84" t="str">
+        <f>HYPERLINK("#aes_test_reset_enc!A1", "PASS")</f>
+        <v>PASS</v>
+      </c>
       <c r="L12" s="20"/>
     </row>
     <row r="13" spans="1:12" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3039,24 +3051,27 @@
       <c r="J13" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="44"/>
+      <c r="K13" s="84" t="str">
+        <f>HYPERLINK("#aes_test_reset_dec!A1", "PASS")</f>
+        <v>PASS</v>
+      </c>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="83"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="61"/>
+      <c r="I14" s="61"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="62"/>
     </row>
     <row r="15" spans="1:12" ht="107.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
@@ -3089,8 +3104,9 @@
       <c r="J15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K15" s="44" t="s">
-        <v>108</v>
+      <c r="K15" s="84" t="str">
+        <f>HYPERLINK("#aes_test_definetion_enc!A1", "PASS")</f>
+        <v>PASS</v>
       </c>
       <c r="L15" s="20"/>
     </row>
@@ -3167,20 +3183,20 @@
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="82" t="s">
+      <c r="A18" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="82"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="82"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="82"/>
-      <c r="H18" s="82"/>
-      <c r="I18" s="82"/>
-      <c r="J18" s="82"/>
-      <c r="K18" s="82"/>
-      <c r="L18" s="83"/>
+      <c r="B18" s="61"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="61"/>
+      <c r="G18" s="61"/>
+      <c r="H18" s="61"/>
+      <c r="I18" s="61"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="62"/>
     </row>
     <row r="19" spans="1:12" ht="109" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
@@ -3213,8 +3229,9 @@
       <c r="J19" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="K19" s="44" t="s">
-        <v>108</v>
+      <c r="K19" s="84" t="str">
+        <f>HYPERLINK("#aes_test_definetion_dec!A1", "PASS")</f>
+        <v>PASS</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -3387,787 +3404,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
-  <dimension ref="B7:N17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="10.26953125" customWidth="1"/>
-    <col min="13" max="13" width="11.1796875" customWidth="1"/>
-    <col min="14" max="14" width="9.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="46"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="55" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="46"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="55" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="46"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="46"/>
-    </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:C17"/>
-    <mergeCell ref="D7:N7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
-  <dimension ref="B7:N17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="54" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="57"/>
-      <c r="D7" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="46"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="46"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="46"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="46"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="46"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="66"/>
-      <c r="C13" s="67"/>
-      <c r="D13" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="49"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="46"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="66"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="49"/>
-      <c r="L14" s="49"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="46"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="66"/>
-      <c r="C15" s="67"/>
-      <c r="D15" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="46"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="66"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="46"/>
-    </row>
-    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="68"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="50"/>
-      <c r="L17" s="50"/>
-      <c r="M17" s="50"/>
-      <c r="N17" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="B8:C17"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
-  <dimension ref="B7:N17"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="Q13" sqref="Q13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="55" t="s">
-        <v>83</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="55" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="59"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="55" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="60"/>
-    </row>
-    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-    </row>
-    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-    </row>
-    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
-      <c r="H17" s="52"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B8:C13"/>
-    <mergeCell ref="D7:N7"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACDF1C6-D7EB-4005-9D39-B97546A20218}">
-  <dimension ref="B7:N13"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="3" max="3" width="14.453125" customWidth="1"/>
-    <col min="14" max="14" width="11.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
-      <c r="B7" s="48" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="58"/>
-      <c r="D7" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
-      <c r="G7" s="71"/>
-      <c r="H7" s="71"/>
-      <c r="I7" s="71"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="72"/>
-    </row>
-    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="64" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="65"/>
-      <c r="D8" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="59"/>
-    </row>
-    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="66"/>
-      <c r="C9" s="67"/>
-      <c r="D9" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
-      <c r="M9" s="49"/>
-      <c r="N9" s="59"/>
-    </row>
-    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="66"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="59"/>
-    </row>
-    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="66"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="66"/>
-      <c r="C12" s="67"/>
-      <c r="D12" s="55" t="s">
-        <v>104</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="50"/>
-      <c r="L13" s="50"/>
-      <c r="M13" s="50"/>
-      <c r="N13" s="60"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D7:N7"/>
-    <mergeCell ref="B8:C13"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -4185,171 +3421,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="73" t="s">
+      <c r="C5" s="75" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-      <c r="O5" s="75"/>
+      <c r="D5" s="76"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="76"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="77"/>
-      <c r="O6" s="78"/>
+      <c r="C6" s="78"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="79"/>
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="80"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="76"/>
-      <c r="D7" s="77"/>
-      <c r="E7" s="77"/>
-      <c r="F7" s="77"/>
-      <c r="G7" s="77"/>
-      <c r="H7" s="77"/>
-      <c r="I7" s="77"/>
-      <c r="J7" s="77"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="77"/>
-      <c r="O7" s="78"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="79"/>
+      <c r="K7" s="79"/>
+      <c r="L7" s="79"/>
+      <c r="M7" s="79"/>
+      <c r="N7" s="79"/>
+      <c r="O7" s="80"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
-      <c r="F8" s="77"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="77"/>
-      <c r="I8" s="77"/>
-      <c r="J8" s="77"/>
-      <c r="K8" s="77"/>
-      <c r="L8" s="77"/>
-      <c r="M8" s="77"/>
-      <c r="N8" s="77"/>
-      <c r="O8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="79"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
+      <c r="M8" s="79"/>
+      <c r="N8" s="79"/>
+      <c r="O8" s="80"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="76"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="77"/>
-      <c r="F9" s="77"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="77"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="77"/>
-      <c r="K9" s="77"/>
-      <c r="L9" s="77"/>
-      <c r="M9" s="77"/>
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="79"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="79"/>
+      <c r="M9" s="79"/>
+      <c r="N9" s="79"/>
+      <c r="O9" s="80"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="76"/>
-      <c r="D10" s="77"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="77"/>
-      <c r="G10" s="77"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="77"/>
-      <c r="J10" s="77"/>
-      <c r="K10" s="77"/>
-      <c r="L10" s="77"/>
-      <c r="M10" s="77"/>
-      <c r="N10" s="77"/>
-      <c r="O10" s="78"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="79"/>
+      <c r="I10" s="79"/>
+      <c r="J10" s="79"/>
+      <c r="K10" s="79"/>
+      <c r="L10" s="79"/>
+      <c r="M10" s="79"/>
+      <c r="N10" s="79"/>
+      <c r="O10" s="80"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="76"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="77"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="78"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="79"/>
+      <c r="I11" s="79"/>
+      <c r="J11" s="79"/>
+      <c r="K11" s="79"/>
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="79"/>
+      <c r="O11" s="80"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="77"/>
-      <c r="G12" s="77"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="77"/>
-      <c r="J12" s="77"/>
-      <c r="K12" s="77"/>
-      <c r="L12" s="77"/>
-      <c r="M12" s="77"/>
-      <c r="N12" s="77"/>
-      <c r="O12" s="78"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+      <c r="I12" s="79"/>
+      <c r="J12" s="79"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="79"/>
+      <c r="M12" s="79"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="76"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="77"/>
-      <c r="K13" s="77"/>
-      <c r="L13" s="77"/>
-      <c r="M13" s="77"/>
-      <c r="N13" s="77"/>
-      <c r="O13" s="78"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="79"/>
+      <c r="I13" s="79"/>
+      <c r="J13" s="79"/>
+      <c r="K13" s="79"/>
+      <c r="L13" s="79"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="79"/>
+      <c r="O13" s="80"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="76"/>
-      <c r="D14" s="77"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="77"/>
-      <c r="G14" s="77"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="77"/>
-      <c r="J14" s="77"/>
-      <c r="K14" s="77"/>
-      <c r="L14" s="77"/>
-      <c r="M14" s="77"/>
-      <c r="N14" s="77"/>
-      <c r="O14" s="78"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="79"/>
+      <c r="I14" s="79"/>
+      <c r="J14" s="79"/>
+      <c r="K14" s="79"/>
+      <c r="L14" s="79"/>
+      <c r="M14" s="79"/>
+      <c r="N14" s="79"/>
+      <c r="O14" s="80"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="79"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="80"/>
-      <c r="J15" s="80"/>
-      <c r="K15" s="80"/>
-      <c r="L15" s="80"/>
-      <c r="M15" s="80"/>
-      <c r="N15" s="80"/>
-      <c r="O15" s="81"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="82"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="82"/>
+      <c r="I15" s="82"/>
+      <c r="J15" s="82"/>
+      <c r="K15" s="82"/>
+      <c r="L15" s="82"/>
+      <c r="M15" s="82"/>
+      <c r="N15" s="82"/>
+      <c r="O15" s="83"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4357,4 +3593,781 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
+  <dimension ref="B7:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.26953125" customWidth="1"/>
+    <col min="13" max="13" width="11.1796875" customWidth="1"/>
+    <col min="14" max="14" width="9.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C17"/>
+    <mergeCell ref="D7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C09F941-062E-4965-AF0A-28192A75FB80}">
+  <dimension ref="B7:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
+    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="54" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="57"/>
+      <c r="D7" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="46"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="46"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="46"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="46"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="46"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="49"/>
+      <c r="L13" s="49"/>
+      <c r="M13" s="49"/>
+      <c r="N13" s="46"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="68"/>
+      <c r="C14" s="69"/>
+      <c r="D14" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="49"/>
+      <c r="L14" s="49"/>
+      <c r="M14" s="49"/>
+      <c r="N14" s="46"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="68"/>
+      <c r="C15" s="69"/>
+      <c r="D15" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="46"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="68"/>
+      <c r="C16" s="69"/>
+      <c r="D16" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49"/>
+      <c r="M16" s="49"/>
+      <c r="N16" s="46"/>
+    </row>
+    <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="70"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+      <c r="M17" s="50"/>
+      <c r="N17" s="47"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="B8:C17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
+  <dimension ref="B7:N17"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="R3" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="56" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="60"/>
+    </row>
+    <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="2:13" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B8:C13"/>
+    <mergeCell ref="D7:N7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACDF1C6-D7EB-4005-9D39-B97546A20218}">
+  <dimension ref="B7:N13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="14.453125" customWidth="1"/>
+    <col min="14" max="14" width="11.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="B7" s="48" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="58"/>
+      <c r="D7" s="72" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
+    </row>
+    <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B8" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="67"/>
+      <c r="D8" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="59"/>
+    </row>
+    <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+      <c r="M9" s="49"/>
+      <c r="N9" s="59"/>
+    </row>
+    <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B10" s="68"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="59"/>
+    </row>
+    <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="59"/>
+    </row>
+    <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="59"/>
+    </row>
+    <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="56" t="s">
+        <v>105</v>
+      </c>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
+      <c r="M13" s="50"/>
+      <c r="N13" s="60"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D7:N7"/>
+    <mergeCell ref="B8:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
+++ b/doc/FSEMI_AES_Test_Plan_Rev1.0.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307BDF11-CAF0-4E19-BEB0-4FA9ADCEBADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="797" documentId="13_ncr:1_{3BA52748-EFAD-42AE-86F7-64A7DDD7FAC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1FD68A-DB25-4153-8452-354C3E89BB0A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4800" yWindow="4840" windowWidth="14400" windowHeight="4670" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="History_" sheetId="10" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="112">
   <si>
     <t>HISTORY</t>
   </si>
@@ -112,12 +112,21 @@
     <t>High</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
     <t>Low</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>Item ID</t>
   </si>
   <si>
+    <t>Checking Method</t>
+  </si>
+  <si>
     <t>Priority</t>
   </si>
   <si>
@@ -127,9 +136,6 @@
     <t>Generate</t>
   </si>
   <si>
-    <t>Checking Method</t>
-  </si>
-  <si>
     <t>Setting</t>
   </si>
   <si>
@@ -139,152 +145,344 @@
     <t>In-charge</t>
   </si>
   <si>
+    <t>Result</t>
+  </si>
+  <si>
     <t>Reset Test</t>
   </si>
   <si>
+    <t>AES_RESET_ENCRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: Ensure that the encryption process releases data after a reset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <t>Waveform checking</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Manual</t>
   </si>
   <si>
-    <t>Waveform checking</t>
+    <t>- define CIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
+  </si>
+  <si>
+    <t>aes_test_reset_enc</t>
   </si>
   <si>
     <t>VinhNH12</t>
   </si>
   <si>
-    <t>aes_test_reset_enc</t>
+    <t xml:space="preserve">PASS =HYPERLINK("#Sheet2!A1", "Go to Sheet2")
+</t>
+  </si>
+  <si>
+    <t>AES_RESET_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check: E</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">nsure that the decryption process releases data after a reset.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Randomize time for reset signal
+- Repeat 10
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>: data_out =128'h 0, finish = 1</t>
+    </r>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- aes_multi_seq
+- set reset time
+- repeat(10)</t>
   </si>
   <si>
     <t>aes_test_reset_dec</t>
   </si>
   <si>
+    <t>PASS</t>
+  </si>
+  <si>
     <t>Encryption Test</t>
   </si>
   <si>
+    <t>AES_MODE_DEFINETION_ENCRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the AES IP operates correctly in encryption mode when defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Set data_input, key values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- define CIPHER
+- data_input = 00112233445566778899aabbccddeeff
+- key = 000102030405060708090a0b0c0d0e0f </t>
+  </si>
+  <si>
+    <t>aes_test_definetion_enc</t>
+  </si>
+  <si>
+    <t>AES_ENCRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define CIPHER
+- Randomize data
+- Repeat 1000
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t>Scoreboard checking</t>
+  </si>
+  <si>
     <t>Automation</t>
-  </si>
-  <si>
-    <t>Scoreboard checking</t>
-  </si>
-  <si>
-    <t>aes_test_continuous_enc</t>
-  </si>
-  <si>
-    <t>Decryption Test</t>
-  </si>
-  <si>
-    <t>PhuocHVD</t>
-  </si>
-  <si>
-    <t>aes_test_continuous_dec</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-This one is very importance, please focus 3 points
-01. Target Check: What need to verification ? 
-02. Setting: How to set ?
-03. Expectation: If the function is correct, what is the result and vice - versa</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-The way which is applied to check, for example: WaveformChecking, SVA, ….</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">Guideline: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="6"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t xml:space="preserve">
-Describle detailed info: signal name and its value, register name and its value</t>
-    </r>
-  </si>
-  <si>
-    <t>↑</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you need to review by higher level engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you do not need to review by higher level engineer </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The test item which need to do in advance </t>
-  </si>
-  <si>
-    <t>Other test item</t>
-  </si>
-  <si>
-    <t>NO CONTENT HERE
-PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
-  </si>
-  <si>
-    <t>AES_RESET_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_RESET_DECRYPTION</t>
   </si>
   <si>
     <t xml:space="preserve">- define CIPHER
@@ -292,9 +490,73 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">- define DECIPHER
--  aes_multi_seq
+    <t>aes_test_continuous_enc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_BOUNDARY_DATA_ENCRYPTION </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>02. Setting:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+- Define CIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">03. Expectation:  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
   </si>
   <si>
     <t>- define CIPHER
@@ -308,6 +570,241 @@
 128'h55555555555555555555555555555555</t>
   </si>
   <si>
+    <t>aes_test_special_data_enc</t>
+  </si>
+  <si>
+    <t>Decryption Test</t>
+  </si>
+  <si>
+    <t>AES_MODE_DEFINETION_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the AES IP operates correctly in decryption mode when defined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Set data_input, key values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
+    </r>
+  </si>
+  <si>
+    <t>- define DECIPHER
+- data_input = 69c4e0d86a7b0430d8cdb78070b4c55a
+- key = 13111d7fe3944a17f307a78b4d2b30c5</t>
+  </si>
+  <si>
+    <t>aes_test_definetion_dec</t>
+  </si>
+  <si>
+    <t>PhuocHVD</t>
+  </si>
+  <si>
+    <t>AES_DECRYPTION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  Verifies the decryption of a multi data block using a randomly generated key and Ciphertext.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Randomize data
+- Repeat 100
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- define DECIPHER
+-  aes_multi_seq
+</t>
+  </si>
+  <si>
+    <t>aes_test_continuous_dec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AES_BOUNDARY_DATA_DECRYPTION </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>01. Target Check:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">02. Setting: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">- Define DECIPHER
+- Assign data with specific values
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>03. Expectation:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
+    </r>
+  </si>
+  <si>
     <t>- define DECIPHER
 - data_input[0], key[0] =
 128'h00000000000000000000000000000000
@@ -319,636 +816,116 @@
 128'h55555555555555555555555555555555</t>
   </si>
   <si>
-    <t xml:space="preserve">- define CIPHER
-- data_input = 00112233445566778899aabbccddeeff
-- key = 000102030405060708090a0b0c0d0e0f </t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- data_input = 69c4e0d86a7b0430d8cdb78070b4c55a
-- key = 13111d7fe3944a17f307a78b4d2b30c5</t>
-  </si>
-  <si>
     <t>aes_test_special_data_dec</t>
   </si>
   <si>
-    <t>aes_test_special_data_enc</t>
-  </si>
-  <si>
-    <t>aes_test_definetion_enc</t>
-  </si>
-  <si>
-    <t>AES_MODE_DEFINETION_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_MODE_DEFINETION_DECRYPTION</t>
-  </si>
-  <si>
-    <t>aes_test_definetion_dec</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>Result</t>
-  </si>
-  <si>
-    <t>- define DECIPHER
-- aes_multi_seq
-- set reset time
-- repeat(10)</t>
-  </si>
-  <si>
-    <t>- define CIPHER
-- aes_multi_seq
-- set reset time
-- repeat(10)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the decryption of a multi data block using a randomly generated key and Ciphertext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Repeat 100
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <r>
+      <rPr>
         <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify that the AES IP operates correctly in decryption mode when defined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Set data_input, key values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  Verifies the encryption of a multi data block using a randomly generated key and plaintext.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Randomize data
-- Repeat 1000
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
         <i/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify that the AES IP operates correctly in encryption mode when defined
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting:
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define CIPHER
-- Set data_input, key values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) =  the expected predefined value.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Verify that the output data is exactly as expected with input data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- Define CIPHER
-- Assign data with specific values
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">03. Expectation:  </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>The actual data (from DUT) = the golden data ( from c model )</t>
-    </r>
-  </si>
-  <si>
-    <t>AES_ENCRYPTION</t>
-  </si>
-  <si>
-    <t>AES_DECRYPTION</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">: Ensure that the encryption process releases data after a reset.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>02. Setting:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 
-- Define CIPHER
-- Randomize data
-- Randomize time for reset signal
-- Repeat 10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>01. Target Check: E</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">nsure that the decryption process releases data after a reset.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">02. Setting: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- Define DECIPHER
-- Randomize data
-- Randomize time for reset signal
-- Repeat 10
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>03. Expectation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Yu Gothic UI"/>
-        <family val="2"/>
-      </rPr>
-      <t>: data_out =128'h 0, finish = 1</t>
-    </r>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+This one is very importance, please focus 3 points
+01. Target Check: What need to verification ? 
+02. Setting: How to set ?
+03. Expectation: If the function is correct, what is the result and vice - versa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+The way which is applied to check, for example: WaveformChecking, SVA, ….</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">Guideline: </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="6"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic UI"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t xml:space="preserve">
+Describle detailed info: signal name and its value, register name and its value</t>
+    </r>
+  </si>
+  <si>
+    <t>↑</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you need to review by higher level engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you do not need to review by higher level engineer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The test item which need to do in advance </t>
+  </si>
+  <si>
+    <t>Other test item</t>
+  </si>
+  <si>
+    <t>NO CONTENT HERE
+PLEASE GO TO THE NEXT SHEETS FOR APPENDIX</t>
   </si>
   <si>
     <t>Test Case Name:</t>
   </si>
   <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
     <t xml:space="preserve"> - At t = 0, signal rst_n = 0, clk = 1, finished = 1, T_clk = 10ns.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 18ns, input encrypted data and key, signal rst_n = 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, encryption starts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, encryption stops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 210ns, signal rst_n = 1, enable encryption, encryption continues.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 230ns, new encrypted data and key are input, encryption performs new data, old data is overwritten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, decryption starts.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, decryption stops.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 230ns, new decrypted data and key are input, decryption performs new data, old data is overwritten.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data encryption, give encryption result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data decryption, give decryption result.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 18ns, input decrypted data and key, signal rst_n = 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - At t = 320ns, give encoding result: </t>
   </si>
   <si>
     <t xml:space="preserve"> - At t = 18ns, signal rst_n = 1, input encrypted data and key:</t>
@@ -994,6 +971,24 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, encryption starts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data encryption, give encryption result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, encryption stops.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 210ns, signal rst_n = 1, enable encryption, encryption continues.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 230ns, new encrypted data and key are input, encryption performs new data, old data is overwritten.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 320ns, give encoding result: </t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1015,10 +1010,22 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve"> - At t = 18ns, signal rst_n = 1, input decrypted data and key:</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 20ns, signal finished = 0, decryption starts.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - After 10 clk pulse cycles, signal finished = 1, complete data decryption, give decryption result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 130ns, signal rst_n = 0, output signal is cleared to 0, decryption stops.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> - At t = 210ns, signal rst_n = 1, enable decryption, decryption continues.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - At t = 18ns, signal rst_n = 1, input decrypted data and key:</t>
+    <t xml:space="preserve"> - At t = 230ns, new decrypted data and key are input, decryption performs new data, old data is overwritten.</t>
   </si>
   <si>
     <r>
@@ -1042,9 +1049,12 @@
     </r>
   </si>
   <si>
-    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data encryption, give encryption result.</t>
-  </si>
-  <si>
+    <t xml:space="preserve"> - At t = 18ns, input encrypted data and key, signal rst_n = 1.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1053,7 +1063,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">data_output[127:0] </t>
+      <t>data_input[127:0]</t>
     </r>
     <r>
       <rPr>
@@ -1062,13 +1072,8 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>= 128'h69c4e0d86a7b0430d8cdb78070b4c55a</t>
-    </r>
-  </si>
-  <si>
-    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data decryption, give decryption result.</t>
-  </si>
-  <si>
+      <t xml:space="preserve"> = 128'h00112233445566778899aabbccddeeff; </t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -1077,7 +1082,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">data_output[127:0] </t>
+      <t xml:space="preserve">key[127:0] </t>
     </r>
     <r>
       <rPr>
@@ -1086,8 +1091,11 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>= 128'h 00112233445566778899aabbccddeeff</t>
-    </r>
+      <t>=128'h000102030405060708090a0b0c0d0e0f</t>
+    </r>
+  </si>
+  <si>
+    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data encryption, give encryption result.</t>
   </si>
   <si>
     <r>
@@ -1098,7 +1106,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> data_input[127:0]</t>
+      <t xml:space="preserve">data_output[127:0] </t>
     </r>
     <r>
       <rPr>
@@ -1107,8 +1115,13 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = 128'h69c4e0d86a7b0430d8cdb78070b4c55a;</t>
-    </r>
+      <t>= 128'h69c4e0d86a7b0430d8cdb78070b4c55a</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> - At t = 18ns, input decrypted data and key, signal rst_n = 1.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1117,7 +1130,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> key[127:0] </t>
+      <t xml:space="preserve"> data_input[127:0]</t>
     </r>
     <r>
       <rPr>
@@ -1126,12 +1139,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>=128'h13111d7fe3944a17f307a78b4d2b30c5</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve"> </t>
+      <t xml:space="preserve"> = 128'h69c4e0d86a7b0430d8cdb78070b4c55a;</t>
     </r>
     <r>
       <rPr>
@@ -1141,7 +1149,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>data_input[127:0]</t>
+      <t xml:space="preserve"> key[127:0] </t>
     </r>
     <r>
       <rPr>
@@ -1150,8 +1158,13 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> = 128'h00112233445566778899aabbccddeeff; </t>
-    </r>
+      <t>=128'h13111d7fe3944a17f307a78b4d2b30c5</t>
+    </r>
+  </si>
+  <si>
+    <t>- After 10 clk pulse cycles, at t = 120ns, signal finished = 1, complete data decryption, give decryption result.</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -1160,7 +1173,7 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">key[127:0] </t>
+      <t xml:space="preserve">data_output[127:0] </t>
     </r>
     <r>
       <rPr>
@@ -1169,24 +1182,15 @@
         <rFont val="Yu Gothic UI"/>
         <family val="2"/>
       </rPr>
-      <t>=128'h000102030405060708090a0b0c0d0e0f</t>
-    </r>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_BOUNDARY_DATA_ENCRYPTION </t>
-  </si>
-  <si>
-    <t xml:space="preserve">AES_BOUNDARY_DATA_DECRYPTION </t>
+      <t>= 128'h 00112233445566778899aabbccddeeff</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1316,14 +1320,6 @@
       <name val="Yu Gothic UI"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1686,9 +1682,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1788,6 +1783,9 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1796,6 +1794,33 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1824,39 +1849,8 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="4">
@@ -2094,8 +2088,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>632070</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>3420</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:to>
@@ -2142,21 +2136,14 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="5">
-          <cell r="D5">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="D26">
-            <v>0</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2433,23 +2420,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" customWidth="1"/>
     <col min="3" max="3" width="48.26953125" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.36328125" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.85">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
     </row>
     <row r="2" spans="1:6" ht="9" customHeight="1" x14ac:dyDescent="0.85">
       <c r="A2" s="15"/>
@@ -2856,22 +2843,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEA18608-71B4-4A12-B2B2-020A4DB590C5}">
   <dimension ref="A2:L29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C15" zoomScale="79" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScale="71" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="19" customWidth="1"/>
-    <col min="2" max="2" width="30.36328125" style="19" customWidth="1"/>
-    <col min="3" max="3" width="29.90625" style="19" customWidth="1"/>
+    <col min="1" max="1" width="4.81640625" style="19" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="19" customWidth="1"/>
+    <col min="3" max="3" width="29.81640625" style="19" customWidth="1"/>
     <col min="4" max="4" width="17.54296875" style="19" customWidth="1"/>
     <col min="5" max="5" width="9" style="19" customWidth="1"/>
     <col min="6" max="7" width="9.1796875" style="19" customWidth="1"/>
     <col min="8" max="8" width="36.7265625" style="19" customWidth="1"/>
-    <col min="9" max="9" width="23.90625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="23.81640625" style="19" customWidth="1"/>
     <col min="10" max="10" width="8.7265625" style="19"/>
-    <col min="11" max="11" width="30.6328125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="30.54296875" style="19" customWidth="1"/>
     <col min="13" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
@@ -2908,25 +2895,25 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="65" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="66"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B7" s="20" t="s">
         <v>19</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>67</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>66</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="11.5" x14ac:dyDescent="0.3">
@@ -2934,34 +2921,34 @@
         <v>4</v>
       </c>
       <c r="B10" s="21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>1</v>
       </c>
       <c r="D10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="22" t="s">
-        <v>22</v>
-      </c>
       <c r="F10" s="22" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I10" s="22" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J10" s="22" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>68</v>
+        <v>31</v>
       </c>
       <c r="L10" s="22" t="s">
         <v>9</v>
@@ -2969,7 +2956,7 @@
     </row>
     <row r="11" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B11" s="61"/>
       <c r="C11" s="61"/>
@@ -2983,40 +2970,39 @@
       <c r="K11" s="61"/>
       <c r="L11" s="62"/>
     </row>
-    <row r="12" spans="1:12" ht="123.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="123.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>1</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C12" s="45" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E12" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F12" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G12" s="20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="J12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="84" t="str">
-        <f>HYPERLINK("#aes_test_reset_enc!A1", "PASS")</f>
-        <v>PASS</v>
+        <v>40</v>
+      </c>
+      <c r="K12" s="63" t="s">
+        <v>41</v>
       </c>
       <c r="L12" s="20"/>
     </row>
@@ -3025,41 +3011,40 @@
         <v>2</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C13" s="45" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E13" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F13" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="I13" s="20" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J13" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="84" t="str">
-        <f>HYPERLINK("#aes_test_reset_dec!A1", "PASS")</f>
-        <v>PASS</v>
+        <v>40</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="L13" s="20"/>
     </row>
     <row r="14" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="61" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
@@ -3078,71 +3063,70 @@
         <v>3</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C15" s="45" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E15" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F15" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="I15" s="20" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="J15" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="84" t="str">
-        <f>HYPERLINK("#aes_test_definetion_enc!A1", "PASS")</f>
-        <v>PASS</v>
+        <v>40</v>
+      </c>
+      <c r="K15" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="L15" s="20"/>
     </row>
-    <row r="16" spans="1:12" ht="120.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="120.65" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>4</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>77</v>
+        <v>52</v>
       </c>
       <c r="C16" s="45" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D16" s="20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E16" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I16" s="20" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J16" s="20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K16" s="44" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="L16" s="20"/>
     </row>
@@ -3151,40 +3135,40 @@
         <v>5</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>58</v>
       </c>
       <c r="C17" s="45" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E17" s="20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G17" s="26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I17" s="20" t="s">
         <v>61</v>
       </c>
       <c r="J17" s="20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K17" s="44" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="L17" s="20"/>
     </row>
     <row r="18" spans="1:12" ht="14.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="61" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="B18" s="61"/>
       <c r="C18" s="61"/>
@@ -3203,35 +3187,34 @@
         <v>6</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>72</v>
-      </c>
       <c r="D19" s="20" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E19" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F19" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="I19" s="20" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="J19" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19" s="84" t="str">
-        <f>HYPERLINK("#aes_test_definetion_dec!A1", "PASS")</f>
-        <v>PASS</v>
+        <v>67</v>
+      </c>
+      <c r="K19" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="L19" s="20"/>
     </row>
@@ -3240,34 +3223,34 @@
         <v>7</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C20" s="45" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F20" s="20" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G20" s="20" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="I20" s="20" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="J20" s="20" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K20" s="44" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="L20" s="20"/>
     </row>
@@ -3276,34 +3259,34 @@
         <v>8</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="C21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I21" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>60</v>
-      </c>
       <c r="J21" s="20" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="K21" s="44" t="s">
-        <v>108</v>
+        <v>46</v>
       </c>
       <c r="L21" s="20"/>
     </row>
@@ -3311,16 +3294,16 @@
       <c r="A22" s="20"/>
       <c r="B22" s="20"/>
       <c r="C22" s="38" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="D22" s="38" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="20"/>
       <c r="H22" s="38" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="I22" s="20"/>
       <c r="J22" s="20"/>
@@ -3329,13 +3312,13 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E23" s="24" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="F23" s="28" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>46</v>
+        <v>79</v>
       </c>
       <c r="H23" s="33"/>
     </row>
@@ -3343,7 +3326,7 @@
       <c r="E24" s="25"/>
       <c r="F24" s="29"/>
       <c r="G24" s="25" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="H24" s="34"/>
     </row>
@@ -3351,17 +3334,17 @@
       <c r="E25" s="25"/>
       <c r="F25" s="29"/>
       <c r="G25" s="26" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H25" s="35"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E26" s="25"/>
       <c r="F26" s="30" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="H26" s="36"/>
     </row>
@@ -3371,7 +3354,7 @@
         <v>4</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
       <c r="H27" s="37"/>
     </row>
@@ -3380,16 +3363,16 @@
         <v>19</v>
       </c>
       <c r="F28" s="19" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="H28" s="34"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="E29" s="26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F29" s="27" t="s">
-        <v>50</v>
+        <v>83</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="35"/>
@@ -3421,171 +3404,171 @@
   <sheetData>
     <row r="4" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="5" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C5" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="76"/>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
+      <c r="C5" s="67" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="68"/>
+      <c r="L5" s="68"/>
+      <c r="M5" s="68"/>
+      <c r="N5" s="68"/>
+      <c r="O5" s="69"/>
     </row>
     <row r="6" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C6" s="78"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="79"/>
-      <c r="J6" s="79"/>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="80"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="72"/>
     </row>
     <row r="7" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C7" s="78"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="79"/>
-      <c r="I7" s="79"/>
-      <c r="J7" s="79"/>
-      <c r="K7" s="79"/>
-      <c r="L7" s="79"/>
-      <c r="M7" s="79"/>
-      <c r="N7" s="79"/>
-      <c r="O7" s="80"/>
+      <c r="C7" s="70"/>
+      <c r="D7" s="71"/>
+      <c r="E7" s="71"/>
+      <c r="F7" s="71"/>
+      <c r="G7" s="71"/>
+      <c r="H7" s="71"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="71"/>
+      <c r="M7" s="71"/>
+      <c r="N7" s="71"/>
+      <c r="O7" s="72"/>
     </row>
     <row r="8" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="79"/>
-      <c r="H8" s="79"/>
-      <c r="I8" s="79"/>
-      <c r="J8" s="79"/>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
-      <c r="M8" s="79"/>
-      <c r="N8" s="79"/>
-      <c r="O8" s="80"/>
+      <c r="C8" s="70"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+      <c r="M8" s="71"/>
+      <c r="N8" s="71"/>
+      <c r="O8" s="72"/>
     </row>
     <row r="9" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C9" s="78"/>
-      <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="79"/>
-      <c r="I9" s="79"/>
-      <c r="J9" s="79"/>
-      <c r="K9" s="79"/>
-      <c r="L9" s="79"/>
-      <c r="M9" s="79"/>
-      <c r="N9" s="79"/>
-      <c r="O9" s="80"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="71"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="71"/>
+      <c r="H9" s="71"/>
+      <c r="I9" s="71"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
+      <c r="M9" s="71"/>
+      <c r="N9" s="71"/>
+      <c r="O9" s="72"/>
     </row>
     <row r="10" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="79"/>
-      <c r="I10" s="79"/>
-      <c r="J10" s="79"/>
-      <c r="K10" s="79"/>
-      <c r="L10" s="79"/>
-      <c r="M10" s="79"/>
-      <c r="N10" s="79"/>
-      <c r="O10" s="80"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="71"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
+      <c r="H10" s="71"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="71"/>
+      <c r="M10" s="71"/>
+      <c r="N10" s="71"/>
+      <c r="O10" s="72"/>
     </row>
     <row r="11" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C11" s="78"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="79"/>
-      <c r="I11" s="79"/>
-      <c r="J11" s="79"/>
-      <c r="K11" s="79"/>
-      <c r="L11" s="79"/>
-      <c r="M11" s="79"/>
-      <c r="N11" s="79"/>
-      <c r="O11" s="80"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="71"/>
+      <c r="H11" s="71"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="71"/>
+      <c r="M11" s="71"/>
+      <c r="N11" s="71"/>
+      <c r="O11" s="72"/>
     </row>
     <row r="12" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="79"/>
-      <c r="I12" s="79"/>
-      <c r="J12" s="79"/>
-      <c r="K12" s="79"/>
-      <c r="L12" s="79"/>
-      <c r="M12" s="79"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="71"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="71"/>
+      <c r="J12" s="71"/>
+      <c r="K12" s="71"/>
+      <c r="L12" s="71"/>
+      <c r="M12" s="71"/>
+      <c r="N12" s="71"/>
+      <c r="O12" s="72"/>
     </row>
     <row r="13" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C13" s="78"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="79"/>
-      <c r="I13" s="79"/>
-      <c r="J13" s="79"/>
-      <c r="K13" s="79"/>
-      <c r="L13" s="79"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="79"/>
-      <c r="O13" s="80"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="71"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="71"/>
+      <c r="J13" s="71"/>
+      <c r="K13" s="71"/>
+      <c r="L13" s="71"/>
+      <c r="M13" s="71"/>
+      <c r="N13" s="71"/>
+      <c r="O13" s="72"/>
     </row>
     <row r="14" spans="3:15" x14ac:dyDescent="0.35">
-      <c r="C14" s="78"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="79"/>
-      <c r="J14" s="79"/>
-      <c r="K14" s="79"/>
-      <c r="L14" s="79"/>
-      <c r="M14" s="79"/>
-      <c r="N14" s="79"/>
-      <c r="O14" s="80"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="71"/>
+      <c r="H14" s="71"/>
+      <c r="I14" s="71"/>
+      <c r="J14" s="71"/>
+      <c r="K14" s="71"/>
+      <c r="L14" s="71"/>
+      <c r="M14" s="71"/>
+      <c r="N14" s="71"/>
+      <c r="O14" s="72"/>
     </row>
     <row r="15" spans="3:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C15" s="81"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="82"/>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82"/>
-      <c r="L15" s="82"/>
-      <c r="M15" s="82"/>
-      <c r="N15" s="82"/>
-      <c r="O15" s="83"/>
+      <c r="C15" s="73"/>
+      <c r="D15" s="74"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="74"/>
+      <c r="I15" s="74"/>
+      <c r="J15" s="74"/>
+      <c r="K15" s="74"/>
+      <c r="L15" s="74"/>
+      <c r="M15" s="74"/>
+      <c r="N15" s="74"/>
+      <c r="O15" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3599,8 +3582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F86090-EE06-457C-9BD3-477442AABCF5}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3612,30 +3595,30 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="D7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="67"/>
+      <c r="B8" s="76" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="77"/>
       <c r="D8" s="55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3649,10 +3632,10 @@
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="55" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3666,10 +3649,10 @@
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="55" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3683,10 +3666,10 @@
       <c r="N10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3700,10 +3683,10 @@
       <c r="N11" s="46"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="55" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3717,10 +3700,10 @@
       <c r="N12" s="46"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="55" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3734,10 +3717,10 @@
       <c r="N13" s="46"/>
     </row>
     <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="55" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -3751,10 +3734,10 @@
       <c r="N14" s="46"/>
     </row>
     <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="55" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -3768,8 +3751,8 @@
       <c r="N15" s="46"/>
     </row>
     <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="55" t="s">
         <v>95</v>
       </c>
@@ -3785,10 +3768,10 @@
       <c r="N16" s="46"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="56" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -3821,36 +3804,36 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.08984375" customWidth="1"/>
-    <col min="14" max="14" width="11.36328125" customWidth="1"/>
+    <col min="3" max="3" width="10.1796875" customWidth="1"/>
+    <col min="14" max="14" width="11.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="54" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="57"/>
-      <c r="D7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="67"/>
+      <c r="B8" s="76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="77"/>
       <c r="D8" s="55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -3864,10 +3847,10 @@
       <c r="N8" s="46"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="55" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -3881,10 +3864,10 @@
       <c r="N9" s="46"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="55" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -3898,10 +3881,10 @@
       <c r="N10" s="46"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="55" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -3915,10 +3898,10 @@
       <c r="N11" s="46"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="55" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -3932,10 +3915,10 @@
       <c r="N12" s="46"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="68"/>
-      <c r="C13" s="69"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="55" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E13" s="49"/>
       <c r="F13" s="49"/>
@@ -3949,10 +3932,10 @@
       <c r="N13" s="46"/>
     </row>
     <row r="14" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B14" s="68"/>
-      <c r="C14" s="69"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="55" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E14" s="49"/>
       <c r="F14" s="49"/>
@@ -3966,10 +3949,10 @@
       <c r="N14" s="46"/>
     </row>
     <row r="15" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B15" s="68"/>
-      <c r="C15" s="69"/>
+      <c r="B15" s="78"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="55" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E15" s="49"/>
       <c r="F15" s="49"/>
@@ -3983,8 +3966,8 @@
       <c r="N15" s="46"/>
     </row>
     <row r="16" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B16" s="68"/>
-      <c r="C16" s="69"/>
+      <c r="B16" s="78"/>
+      <c r="C16" s="79"/>
       <c r="D16" s="55" t="s">
         <v>95</v>
       </c>
@@ -4000,10 +3983,10 @@
       <c r="N16" s="46"/>
     </row>
     <row r="17" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B17" s="70"/>
-      <c r="C17" s="71"/>
+      <c r="B17" s="80"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="56" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E17" s="50"/>
       <c r="F17" s="50"/>
@@ -4030,40 +4013,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935AD659-F69B-49E4-8554-85BA010380AA}">
   <dimension ref="B7:N17"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="R3" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="15.6328125" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" customWidth="1"/>
     <col min="14" max="14" width="11.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="67"/>
+      <c r="B8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="77"/>
       <c r="D8" s="55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -4077,10 +4062,10 @@
       <c r="N8" s="59"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="55" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -4094,10 +4079,10 @@
       <c r="N9" s="59"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -4111,10 +4096,10 @@
       <c r="N10" s="59"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="55" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -4128,10 +4113,10 @@
       <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="55" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -4145,10 +4130,10 @@
       <c r="N12" s="59"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="56" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
@@ -4231,7 +4216,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACDF1C6-D7EB-4005-9D39-B97546A20218}">
   <dimension ref="B7:N13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4241,30 +4228,30 @@
   <sheetData>
     <row r="7" spans="2:14" x14ac:dyDescent="0.35">
       <c r="B7" s="48" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C7" s="58"/>
-      <c r="D7" s="72" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="73"/>
-      <c r="J7" s="73"/>
-      <c r="K7" s="73"/>
-      <c r="L7" s="73"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="82" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="84"/>
     </row>
     <row r="8" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B8" s="66" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="67"/>
+      <c r="B8" s="76" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="77"/>
       <c r="D8" s="55" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="E8" s="49"/>
       <c r="F8" s="49"/>
@@ -4278,10 +4265,10 @@
       <c r="N8" s="59"/>
     </row>
     <row r="9" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B9" s="68"/>
-      <c r="C9" s="69"/>
+      <c r="B9" s="78"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="55" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="E9" s="49"/>
       <c r="F9" s="49"/>
@@ -4295,10 +4282,10 @@
       <c r="N9" s="59"/>
     </row>
     <row r="10" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B10" s="68"/>
-      <c r="C10" s="69"/>
+      <c r="B10" s="78"/>
+      <c r="C10" s="79"/>
       <c r="D10" s="55" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E10" s="49"/>
       <c r="F10" s="49"/>
@@ -4312,10 +4299,10 @@
       <c r="N10" s="59"/>
     </row>
     <row r="11" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B11" s="68"/>
-      <c r="C11" s="69"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
       <c r="D11" s="55" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E11" s="49"/>
       <c r="F11" s="49"/>
@@ -4329,10 +4316,10 @@
       <c r="N11" s="59"/>
     </row>
     <row r="12" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B12" s="68"/>
-      <c r="C12" s="69"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="55" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="E12" s="49"/>
       <c r="F12" s="49"/>
@@ -4346,10 +4333,10 @@
       <c r="N12" s="59"/>
     </row>
     <row r="13" spans="2:14" ht="16.5" x14ac:dyDescent="0.45">
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="80"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
